--- a/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
+++ b/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="89">
+  <si>
+    <t>KCC</t>
+  </si>
   <si>
     <t>Architecture/PV
 (kW)</t>
@@ -34,253 +37,253 @@
 ($)</t>
   </si>
   <si>
-    <t>KCC</t>
-  </si>
-  <si>
     <t>CaseNum</t>
   </si>
   <si>
     <t>CaseName</t>
   </si>
   <si>
+    <t>Case1</t>
+  </si>
+  <si>
+    <t>Case2</t>
+  </si>
+  <si>
+    <t>Case3</t>
+  </si>
+  <si>
     <t>Case4</t>
   </si>
   <si>
-    <t>Case3</t>
-  </si>
-  <si>
-    <t>Case2</t>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>AtlantaGA</t>
+  </si>
+  <si>
+    <t>BangorME</t>
+  </si>
+  <si>
+    <t>BendOre</t>
+  </si>
+  <si>
+    <t>BentonCountyOregon</t>
+  </si>
+  <si>
+    <t>BirminghamAL</t>
+  </si>
+  <si>
+    <t>BismarckND</t>
+  </si>
+  <si>
+    <t>BlaineCountyMontana</t>
+  </si>
+  <si>
+    <t>BoiseID</t>
+  </si>
+  <si>
+    <t>BrewsterMA</t>
+  </si>
+  <si>
+    <t>BurlingtonVT</t>
+  </si>
+  <si>
+    <t>Buttonwillow</t>
+  </si>
+  <si>
+    <t>CarsonCityNV</t>
+  </si>
+  <si>
+    <t>CheyenneWY</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>CoalvilleUT</t>
+  </si>
+  <si>
+    <t>ColumbiaMO</t>
+  </si>
+  <si>
+    <t>ColumbusOH</t>
+  </si>
+  <si>
+    <t>CrestedButteCO</t>
+  </si>
+  <si>
+    <t>DesMoinesIA</t>
+  </si>
+  <si>
+    <t>DetroitMI</t>
+  </si>
+  <si>
+    <t>EielsonAFB</t>
+  </si>
+  <si>
+    <t>Everglade</t>
+  </si>
+  <si>
+    <t>Flagstaff</t>
+  </si>
+  <si>
+    <t>GreatFallsMT</t>
+  </si>
+  <si>
+    <t>Hil</t>
+  </si>
+  <si>
+    <t>IdahoFalls</t>
+  </si>
+  <si>
+    <t>JacksonMS</t>
+  </si>
+  <si>
+    <t>Kauai</t>
+  </si>
+  <si>
+    <t>KootenaiCountyID</t>
+  </si>
+  <si>
+    <t>LancasterPA</t>
+  </si>
+  <si>
+    <t>LaredoTX</t>
+  </si>
+  <si>
+    <t>LincolnNE</t>
+  </si>
+  <si>
+    <t>LittleRockAR</t>
+  </si>
+  <si>
+    <t>Longview</t>
+  </si>
+  <si>
+    <t>LosAlamosNM</t>
+  </si>
+  <si>
+    <t>MarlintonWV</t>
+  </si>
+  <si>
+    <t>MedfordOR</t>
+  </si>
+  <si>
+    <t>MemphisTN</t>
+  </si>
+  <si>
+    <t>Miam</t>
+  </si>
+  <si>
+    <t>MobileAL</t>
+  </si>
+  <si>
+    <t>MoscowID</t>
+  </si>
+  <si>
+    <t>NOLA</t>
+  </si>
+  <si>
+    <t>NeahBay</t>
+  </si>
+  <si>
+    <t>OKCity</t>
+  </si>
+  <si>
+    <t>ORNL</t>
+  </si>
+  <si>
+    <t>PhoenixAZ</t>
+  </si>
+  <si>
+    <t>PrescottAZ</t>
+  </si>
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>RaleighNC</t>
+  </si>
+  <si>
+    <t>RapidCitySD</t>
+  </si>
+  <si>
+    <t>ReddingCA</t>
+  </si>
+  <si>
+    <t>RichmondVA</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>SouthBendIN</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>TexasOil</t>
+  </si>
+  <si>
+    <t>UPMich</t>
+  </si>
+  <si>
+    <t>VegasNV</t>
   </si>
   <si>
     <t>WadenaMN</t>
   </si>
   <si>
-    <t>VegasNV</t>
-  </si>
-  <si>
-    <t>UPMich</t>
-  </si>
-  <si>
-    <t>TexasOil</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>SouthBendIN</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>RichmondVA</t>
-  </si>
-  <si>
-    <t>ReddingCA</t>
-  </si>
-  <si>
-    <t>RapidCitySD</t>
-  </si>
-  <si>
-    <t>RaleighNC</t>
-  </si>
-  <si>
-    <t>Pueblo</t>
-  </si>
-  <si>
-    <t>PrescottAZ</t>
-  </si>
-  <si>
-    <t>PhoenixAZ</t>
-  </si>
-  <si>
-    <t>ORNL</t>
-  </si>
-  <si>
-    <t>OKCity</t>
-  </si>
-  <si>
-    <t>NOLA</t>
-  </si>
-  <si>
-    <t>NeahBay</t>
-  </si>
-  <si>
-    <t>MoscowID</t>
-  </si>
-  <si>
-    <t>MobileAL</t>
-  </si>
-  <si>
-    <t>Miam</t>
-  </si>
-  <si>
-    <t>MemphisTN</t>
-  </si>
-  <si>
-    <t>MedfordOR</t>
-  </si>
-  <si>
-    <t>MarlintonWV</t>
-  </si>
-  <si>
-    <t>LosAlamosNM</t>
-  </si>
-  <si>
-    <t>Longview</t>
-  </si>
-  <si>
-    <t>LittleRockAR</t>
-  </si>
-  <si>
-    <t>LincolnNE</t>
-  </si>
-  <si>
-    <t>LaredoTX</t>
-  </si>
-  <si>
-    <t>LancasterPA</t>
-  </si>
-  <si>
-    <t>KootenaiCountyID</t>
-  </si>
-  <si>
-    <t>Kauai</t>
-  </si>
-  <si>
-    <t>JacksonMS</t>
-  </si>
-  <si>
-    <t>IdahoFalls</t>
-  </si>
-  <si>
-    <t>Hil</t>
-  </si>
-  <si>
-    <t>GreatFallsMT</t>
-  </si>
-  <si>
-    <t>Flagstaff</t>
-  </si>
-  <si>
-    <t>Everglade</t>
-  </si>
-  <si>
-    <t>EielsonAFB</t>
-  </si>
-  <si>
-    <t>DetroitMI</t>
-  </si>
-  <si>
-    <t>DesMoinesIA</t>
-  </si>
-  <si>
-    <t>CrestedButteCO</t>
-  </si>
-  <si>
-    <t>ColumbusOH</t>
-  </si>
-  <si>
-    <t>ColumbiaMO</t>
-  </si>
-  <si>
-    <t>CoalvilleUT</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>CheyenneWY</t>
-  </si>
-  <si>
-    <t>CarsonCityNV</t>
-  </si>
-  <si>
-    <t>Buttonwillow</t>
-  </si>
-  <si>
-    <t>BurlingtonVT</t>
-  </si>
-  <si>
-    <t>BrewsterMA</t>
-  </si>
-  <si>
-    <t>BoiseID</t>
-  </si>
-  <si>
-    <t>BlaineCountyMontana</t>
-  </si>
-  <si>
-    <t>BismarckND</t>
-  </si>
-  <si>
-    <t>BirminghamAL</t>
-  </si>
-  <si>
-    <t>BentonCountyOregon</t>
-  </si>
-  <si>
-    <t>BendOre</t>
-  </si>
-  <si>
-    <t>BangorME</t>
+    <t>YumaAZ</t>
   </si>
   <si>
     <t>AZYuma</t>
   </si>
   <si>
-    <t>AtlantaGA</t>
-  </si>
-  <si>
-    <t>Ashland</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
+    <t>dfc</t>
+  </si>
+  <si>
+    <t>dfb</t>
+  </si>
+  <si>
+    <t>cfa</t>
+  </si>
+  <si>
+    <t>bsk</t>
+  </si>
+  <si>
+    <t>csb</t>
   </si>
   <si>
     <t>dfa</t>
   </si>
   <si>
+    <t>bwk</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>dsb</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>cfb</t>
+  </si>
+  <si>
+    <t>bsh</t>
+  </si>
+  <si>
+    <t>csa</t>
+  </si>
+  <si>
     <t>bwh</t>
-  </si>
-  <si>
-    <t>dfb</t>
-  </si>
-  <si>
-    <t>bsh</t>
-  </si>
-  <si>
-    <t>csa</t>
-  </si>
-  <si>
-    <t>cfa</t>
-  </si>
-  <si>
-    <t>bsk</t>
-  </si>
-  <si>
-    <t>cfb</t>
-  </si>
-  <si>
-    <t>csb</t>
-  </si>
-  <si>
-    <t>iaf</t>
-  </si>
-  <si>
-    <t>dsb</t>
-  </si>
-  <si>
-    <t>oaf</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>dfc</t>
-  </si>
-  <si>
-    <t>bwk</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,1456 +678,1303 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>10727.02953987664</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>62704.40645764015</v>
       </c>
       <c r="E2">
-        <v>3000</v>
-      </c>
-      <c r="F2">
-        <v>25372</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>0.1386382579803467</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
+        <v>249345</v>
+      </c>
+      <c r="H2">
+        <v>0.4393435716629028</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>19857.02538286048</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>40033.75092534612</v>
       </c>
       <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="F3">
-        <v>43517</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0.1550425291061401</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
+        <v>83153</v>
+      </c>
+      <c r="H3">
+        <v>0.2077768743038177</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>17200.15706878671</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>93091.97141745969</v>
       </c>
       <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>37649</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0.1625120937824249</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
+        <v>121562</v>
+      </c>
+      <c r="H4">
+        <v>0.2525692880153656</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>14815.15263309991</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>61149.25152375863</v>
       </c>
       <c r="E5">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <v>35220</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>0.131989598274231</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
+        <v>138129</v>
+      </c>
+      <c r="H5">
+        <v>0.3024282157421112</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>33010.74256618076</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>36672.91337546184</v>
       </c>
       <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>32103</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>0.1794235408306122</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
+        <v>97456</v>
+      </c>
+      <c r="H6">
+        <v>0.2336928993463516</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>15194.08458441624</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>54987.67619963867</v>
       </c>
       <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>36630</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>0.1524860411882401</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
+        <v>146233</v>
+      </c>
+      <c r="H7">
+        <v>0.2768734693527222</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>17891.18928690607</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
       </c>
       <c r="D8">
+        <v>82734.96104951685</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>3000</v>
-      </c>
-      <c r="F8">
-        <v>33142</v>
-      </c>
       <c r="G8">
-        <v>0.1648482978343964</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
+        <v>151535</v>
+      </c>
+      <c r="H8">
+        <v>0.2711388766765594</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>16770.38776105265</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>19983.40932678873</v>
       </c>
       <c r="E9">
-        <v>4000</v>
-      </c>
-      <c r="F9">
-        <v>24317</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>0.189670592546463</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
+        <v>86018</v>
+      </c>
+      <c r="H9">
+        <v>0.1559025198221207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>14139.6835262699</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>17623.83136581631</v>
       </c>
       <c r="E10">
-        <v>4000</v>
-      </c>
-      <c r="F10">
-        <v>18998</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>0.1813366711139679</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
+        <v>99220</v>
+      </c>
+      <c r="H10">
+        <v>0.1630143821239471</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>12856.52843009839</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>71824.58208802422</v>
       </c>
       <c r="E11">
-        <v>3000</v>
-      </c>
-      <c r="F11">
-        <v>30107</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0.1468953788280487</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
+        <v>114556</v>
+      </c>
+      <c r="H11">
+        <v>0.2455868870019913</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>34460.64967520684</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>34446.10060876461</v>
       </c>
       <c r="E12">
-        <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>38742</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0.1843449920415878</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
+        <v>71229</v>
+      </c>
+      <c r="H12">
+        <v>0.1582337021827698</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>18031.15728826307</v>
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>65253.8228777096</v>
       </c>
       <c r="E13">
-        <v>3000</v>
-      </c>
-      <c r="F13">
-        <v>41183</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>0.1585929989814758</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
+        <v>164271</v>
+      </c>
+      <c r="H13">
+        <v>0.3234260976314545</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>15703.61154839397</v>
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
       </c>
       <c r="D14">
+        <v>58568.59530086227</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>3000</v>
-      </c>
-      <c r="F14">
-        <v>32195</v>
-      </c>
       <c r="G14">
-        <v>0.1577858775854111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
+        <v>191926</v>
+      </c>
+      <c r="H14">
+        <v>0.2949548661708832</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>21249.59522275551</v>
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>76800.8</v>
       </c>
       <c r="E15">
-        <v>3000</v>
-      </c>
-      <c r="F15">
-        <v>31865</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>0.1609594523906708</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
+        <v>140655</v>
+      </c>
+      <c r="H15">
+        <v>0.2978404760360718</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>16180.4366507723</v>
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>29093.464460392</v>
       </c>
       <c r="E16">
-        <v>4000</v>
-      </c>
-      <c r="F16">
-        <v>24488</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>0.1885772049427032</v>
-      </c>
-      <c r="H16" t="s">
-        <v>78</v>
+        <v>64955</v>
+      </c>
+      <c r="H16">
+        <v>0.1375516802072525</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>11069.56425234147</v>
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>45713.73168124742</v>
       </c>
       <c r="E17">
-        <v>3000</v>
-      </c>
-      <c r="F17">
-        <v>27959</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>0.1388981491327286</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
+        <v>76039</v>
+      </c>
+      <c r="H17">
+        <v>0.1846518069505692</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>12342.59653514524</v>
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>64242.29255147324</v>
       </c>
       <c r="E18">
-        <v>4000</v>
-      </c>
-      <c r="F18">
-        <v>22951</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>0.1759851574897766</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
+        <v>122473</v>
+      </c>
+      <c r="H18">
+        <v>0.2520990669727325</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>11956.96980259507</v>
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>56910.08842799045</v>
       </c>
       <c r="E19">
-        <v>4000</v>
-      </c>
-      <c r="F19">
-        <v>22738</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>0.1877965480089188</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
+        <v>87857</v>
+      </c>
+      <c r="H19">
+        <v>0.2107397764921188</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>37198.85735168993</v>
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>77376.69364997144</v>
       </c>
       <c r="E20">
-        <v>3000</v>
-      </c>
-      <c r="F20">
-        <v>33547</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>0.1881511062383652</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
+        <v>91002</v>
+      </c>
+      <c r="H20">
+        <v>0.2391571700572968</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>14869.87614513888</v>
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>82810.67242000293</v>
       </c>
       <c r="E21">
-        <v>4000</v>
-      </c>
-      <c r="F21">
-        <v>24828</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>0.1883957386016846</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
+        <v>92899</v>
+      </c>
+      <c r="H21">
+        <v>0.2289169132709503</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>34263.01571910757</v>
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>78143</v>
+        <v>20739.22015903339</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>0.1387719810009003</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
+        <v>83709</v>
+      </c>
+      <c r="H22">
+        <v>0.1619855016469955</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>26806.23464053732</v>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>37186.81439023861</v>
       </c>
       <c r="E23">
-        <v>3000</v>
-      </c>
-      <c r="F23">
-        <v>28275</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>0.1644172966480255</v>
-      </c>
-      <c r="H23" t="s">
-        <v>78</v>
+        <v>74494</v>
+      </c>
+      <c r="H23">
+        <v>0.1763457953929901</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>15479.40408955009</v>
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>51342.30778274829</v>
       </c>
       <c r="E24">
-        <v>4000</v>
-      </c>
-      <c r="F24">
-        <v>19414</v>
+        <v>32</v>
       </c>
       <c r="G24">
-        <v>0.1863949000835419</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
+        <v>207805</v>
+      </c>
+      <c r="H24">
+        <v>0.400917649269104</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>17744.323571088</v>
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>59807.12581497078</v>
       </c>
       <c r="E25">
-        <v>4000</v>
-      </c>
-      <c r="F25">
-        <v>25917</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>0.1949165016412735</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
+        <v>76873</v>
+      </c>
+      <c r="H25">
+        <v>0.2217249274253845</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>25175.41367806965</v>
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>65451.99828154887</v>
       </c>
       <c r="E26">
-        <v>3000</v>
-      </c>
-      <c r="F26">
-        <v>37143</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>0.1680303364992142</v>
-      </c>
-      <c r="H26" t="s">
-        <v>75</v>
+        <v>81181</v>
+      </c>
+      <c r="H26">
+        <v>0.2067031562328339</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>16096.84417432221</v>
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>30239.9265334464</v>
       </c>
       <c r="E27">
-        <v>4000</v>
-      </c>
-      <c r="F27">
-        <v>26774</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>0.1969351172447205</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
+        <v>75576</v>
+      </c>
+      <c r="H27">
+        <v>0.1689421981573105</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>33129.08419686449</v>
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>49002.20022958081</v>
       </c>
       <c r="E28">
-        <v>3000</v>
-      </c>
-      <c r="F28">
-        <v>34599</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>0.1808706969022751</v>
-      </c>
-      <c r="H28" t="s">
-        <v>78</v>
+        <v>88500</v>
+      </c>
+      <c r="H28">
+        <v>0.2054772228002548</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>11227.21045278261</v>
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>34295.94277866919</v>
       </c>
       <c r="E29">
-        <v>3000</v>
-      </c>
-      <c r="F29">
-        <v>28886</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>0.1391603648662567</v>
-      </c>
-      <c r="H29" t="s">
-        <v>73</v>
+        <v>120000</v>
+      </c>
+      <c r="H29">
+        <v>0.2240752577781677</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>11312.19797683035</v>
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>76800.8</v>
       </c>
       <c r="E30">
-        <v>3000</v>
-      </c>
-      <c r="F30">
-        <v>27839</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0.1436746567487717</v>
-      </c>
-      <c r="H30" t="s">
-        <v>76</v>
+        <v>151212</v>
+      </c>
+      <c r="H30">
+        <v>0.2635131180286407</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>14509.59499265923</v>
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>30772.83656027554</v>
       </c>
       <c r="E31">
-        <v>4000</v>
-      </c>
-      <c r="F31">
-        <v>25658</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>0.1896335035562515</v>
-      </c>
-      <c r="H31" t="s">
-        <v>73</v>
+        <v>75914</v>
+      </c>
+      <c r="H31">
+        <v>0.1510546058416367</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>15285.46006236379</v>
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>95058.54383911284</v>
       </c>
       <c r="E32">
-        <v>4000</v>
-      </c>
-      <c r="F32">
-        <v>24943</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>0.1904352754354477</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
+        <v>142322</v>
+      </c>
+      <c r="H32">
+        <v>0.3371167480945587</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>17116.29660509124</v>
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>85976.2378101254</v>
       </c>
       <c r="E33">
-        <v>2000</v>
-      </c>
-      <c r="F33">
-        <v>34202</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>0.1349201947450638</v>
-      </c>
-      <c r="H33" t="s">
-        <v>80</v>
+        <v>112149</v>
+      </c>
+      <c r="H33">
+        <v>0.2755715548992157</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>16688.51791301546</v>
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>46638.71405846393</v>
       </c>
       <c r="E34">
-        <v>4000</v>
-      </c>
-      <c r="F34">
-        <v>25384</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>0.1898485869169235</v>
-      </c>
-      <c r="H34" t="s">
-        <v>78</v>
+        <v>87303</v>
+      </c>
+      <c r="H34">
+        <v>0.1748713552951813</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>17678.93389725996</v>
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>19715.81878080609</v>
       </c>
       <c r="E35">
-        <v>3000</v>
-      </c>
-      <c r="F35">
-        <v>31468</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>0.1621213406324387</v>
-      </c>
-      <c r="H35" t="s">
-        <v>75</v>
+        <v>94408</v>
+      </c>
+      <c r="H35">
+        <v>0.1567805707454681</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>24335.84073607431</v>
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>69619.03856612917</v>
       </c>
       <c r="E36">
-        <v>3000</v>
-      </c>
-      <c r="F36">
-        <v>30959</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>0.1677524596452713</v>
-      </c>
-      <c r="H36" t="s">
-        <v>84</v>
+        <v>97111</v>
+      </c>
+      <c r="H36">
+        <v>0.2435668557882309</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>19614.84955182837</v>
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>49625.54817108983</v>
       </c>
       <c r="E37">
-        <v>3000</v>
-      </c>
-      <c r="F37">
-        <v>32136</v>
+        <v>20</v>
       </c>
       <c r="G37">
-        <v>0.1516307592391968</v>
-      </c>
-      <c r="H37" t="s">
-        <v>79</v>
+        <v>210964</v>
+      </c>
+      <c r="H37">
+        <v>0.3567447066307068</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>22167.30201139807</v>
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>73051.04693399229</v>
       </c>
       <c r="E38">
-        <v>3000</v>
-      </c>
-      <c r="F38">
-        <v>35974</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>0.1616940349340439</v>
-      </c>
-      <c r="H38" t="s">
-        <v>83</v>
+        <v>82422</v>
+      </c>
+      <c r="H38">
+        <v>0.2022130936384201</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39">
-        <v>11943.48131084826</v>
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>88191.10606280006</v>
       </c>
       <c r="E39">
-        <v>4000</v>
-      </c>
-      <c r="F39">
-        <v>23267</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>0.1742358952760696</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
+        <v>110101</v>
+      </c>
+      <c r="H39">
+        <v>0.2534724473953247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40">
-        <v>18862.91428965364</v>
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>102083.4385670787</v>
       </c>
       <c r="E40">
-        <v>4000</v>
-      </c>
-      <c r="F40">
-        <v>25458</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>0.2023488432168961</v>
-      </c>
-      <c r="H40" t="s">
-        <v>86</v>
+        <v>218490</v>
+      </c>
+      <c r="H40">
+        <v>0.3610029816627502</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>19932.03334686616</v>
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>48792.09138342729</v>
       </c>
       <c r="E41">
-        <v>3000</v>
-      </c>
-      <c r="F41">
-        <v>34071</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>0.1554485410451889</v>
-      </c>
-      <c r="H41" t="s">
-        <v>73</v>
+        <v>76786</v>
+      </c>
+      <c r="H41">
+        <v>0.1967675387859344</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42">
-        <v>11752.82337965216</v>
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>34263.01571910757</v>
       </c>
       <c r="E42">
-        <v>3000</v>
-      </c>
-      <c r="F42">
-        <v>29383</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>0.142909973859787</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
+        <v>78143</v>
+      </c>
+      <c r="H42">
+        <v>0.1387719810009003</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43">
-        <v>24965.08209000587</v>
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>82171.77235629928</v>
       </c>
       <c r="E43">
-        <v>3000</v>
-      </c>
-      <c r="F43">
-        <v>46222</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>0.1726787686347961</v>
-      </c>
-      <c r="H43" t="s">
-        <v>86</v>
+        <v>120436</v>
+      </c>
+      <c r="H43">
+        <v>0.256877988576889</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44">
-        <v>12014.15026427569</v>
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>58896.64732388854</v>
       </c>
       <c r="E44">
-        <v>4000</v>
-      </c>
-      <c r="F44">
-        <v>22311</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>0.1811836361885071</v>
-      </c>
-      <c r="H44" t="s">
-        <v>73</v>
+        <v>128490</v>
+      </c>
+      <c r="H44">
+        <v>0.2593738734722137</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45">
-        <v>24719.68687901867</v>
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>60109.02464192615</v>
       </c>
       <c r="E45">
-        <v>3000</v>
-      </c>
-      <c r="F45">
-        <v>35896</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>0.1690924912691116</v>
-      </c>
-      <c r="H45" t="s">
-        <v>78</v>
+        <v>80620</v>
+      </c>
+      <c r="H45">
+        <v>0.2260055243968964</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46">
-        <v>25898.7929230592</v>
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>83079.7353535814</v>
       </c>
       <c r="E46">
-        <v>3000</v>
-      </c>
-      <c r="F46">
-        <v>34355</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>0.1729087680578232</v>
-      </c>
-      <c r="H46" t="s">
-        <v>75</v>
+        <v>86586</v>
+      </c>
+      <c r="H46">
+        <v>0.2377744317054749</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47">
-        <v>24535.82522851022</v>
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>18231.30069574749</v>
       </c>
       <c r="E47">
-        <v>3000</v>
-      </c>
-      <c r="F47">
-        <v>27170</v>
+        <v>9</v>
       </c>
       <c r="G47">
-        <v>0.1543158739805222</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
+        <v>97109</v>
+      </c>
+      <c r="H47">
+        <v>0.1577692478895187</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48">
-        <v>13843.1952791494</v>
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>81510.76305106858</v>
       </c>
       <c r="E48">
-        <v>3000</v>
-      </c>
-      <c r="F48">
-        <v>30562</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>0.1369706690311432</v>
-      </c>
-      <c r="H48" t="s">
-        <v>79</v>
+        <v>178833</v>
+      </c>
+      <c r="H48">
+        <v>0.2981322407722473</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49">
-        <v>34640.85553581916</v>
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>52813.44069541679</v>
       </c>
       <c r="E49">
-        <v>3000</v>
-      </c>
-      <c r="F49">
-        <v>38115</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>0.1852158606052399</v>
-      </c>
-      <c r="H49" t="s">
-        <v>79</v>
+        <v>77082</v>
+      </c>
+      <c r="H49">
+        <v>0.1717848777770996</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50">
-        <v>25934.88838353402</v>
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>51138.49834845062</v>
       </c>
       <c r="E50">
-        <v>3000</v>
-      </c>
-      <c r="F50">
-        <v>31378</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>0.1698428392410278</v>
-      </c>
-      <c r="H50" t="s">
-        <v>87</v>
+        <v>78178</v>
+      </c>
+      <c r="H50">
+        <v>0.1897651553153992</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51">
-        <v>16840.27257873966</v>
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>45323.47842576701</v>
       </c>
       <c r="E51">
-        <v>4000</v>
-      </c>
-      <c r="F51">
-        <v>25145</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>0.1950912177562714</v>
-      </c>
-      <c r="H51" t="s">
-        <v>73</v>
+        <v>88807</v>
+      </c>
+      <c r="H51">
+        <v>0.1861624866724014</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52">
-        <v>14964.67972869397</v>
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>84449.32107186849</v>
       </c>
       <c r="E52">
-        <v>3000</v>
-      </c>
-      <c r="F52">
-        <v>28325</v>
+        <v>14</v>
       </c>
       <c r="G52">
-        <v>0.1392261385917664</v>
-      </c>
-      <c r="H52" t="s">
-        <v>75</v>
+        <v>84906</v>
+      </c>
+      <c r="H52">
+        <v>0.2452609241008759</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53">
-        <v>24841.86365961212</v>
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>43225.70613410767</v>
       </c>
       <c r="E53">
-        <v>3000</v>
-      </c>
-      <c r="F53">
-        <v>34932</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>0.1728316098451614</v>
-      </c>
-      <c r="H53" t="s">
-        <v>79</v>
+        <v>72168</v>
+      </c>
+      <c r="H53">
+        <v>0.1737749129533768</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54">
-        <v>12482.07449892143</v>
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>84572.3944914337</v>
       </c>
       <c r="E54">
-        <v>3000</v>
-      </c>
-      <c r="F54">
-        <v>31125</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>0.1408252567052841</v>
-      </c>
-      <c r="H54" t="s">
-        <v>79</v>
+        <v>143926</v>
+      </c>
+      <c r="H54">
+        <v>0.2843465507030487</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55">
-        <v>10149.36808379716</v>
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>71007.14943685113</v>
       </c>
       <c r="E55">
-        <v>3000</v>
-      </c>
-      <c r="F55">
-        <v>28986</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>0.1382465958595276</v>
-      </c>
-      <c r="H55" t="s">
-        <v>75</v>
+        <v>153666</v>
+      </c>
+      <c r="H55">
+        <v>0.274076521396637</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56">
-        <v>16745.19439714533</v>
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56">
+        <v>64916.4184930542</v>
       </c>
       <c r="E56">
-        <v>4000</v>
-      </c>
-      <c r="F56">
-        <v>26574</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>0.1907617151737213</v>
-      </c>
-      <c r="H56" t="s">
-        <v>78</v>
+        <v>128558</v>
+      </c>
+      <c r="H56">
+        <v>0.2479335814714432</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>17500.18229166668</v>
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57">
+        <v>41710.00267195462</v>
       </c>
       <c r="E57">
-        <v>4000</v>
-      </c>
-      <c r="F57">
-        <v>21667</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>0.191017210483551</v>
-      </c>
-      <c r="H57" t="s">
-        <v>81</v>
+        <v>71172</v>
+      </c>
+      <c r="H57">
+        <v>0.1708641052246094</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58">
-        <v>24292.99438500274</v>
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>79312.43677777941</v>
       </c>
       <c r="E58">
-        <v>3000</v>
-      </c>
-      <c r="F58">
-        <v>38311</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>0.1705761104822159</v>
-      </c>
-      <c r="H58" t="s">
-        <v>79</v>
+        <v>75544</v>
+      </c>
+      <c r="H58">
+        <v>0.22161965072155</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59">
-        <v>13998.01189483575</v>
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>27987.64632517543</v>
       </c>
       <c r="E59">
-        <v>4000</v>
-      </c>
-      <c r="F59">
-        <v>27146</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>0.1933920681476593</v>
-      </c>
-      <c r="H59" t="s">
-        <v>75</v>
+        <v>70819</v>
+      </c>
+      <c r="H59">
+        <v>0.134756475687027</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60">
-        <v>18736.81632884605</v>
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>44257.38193595571</v>
       </c>
       <c r="E60">
-        <v>3000</v>
-      </c>
-      <c r="F60">
-        <v>34227</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>0.1593139916658401</v>
-      </c>
-      <c r="H60" t="s">
-        <v>74</v>
+        <v>74609</v>
+      </c>
+      <c r="H60">
+        <v>0.1851491928100586</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61">
-        <v>15216.06361784767</v>
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>40352.22818032068</v>
       </c>
       <c r="E61">
-        <v>4000</v>
-      </c>
-      <c r="F61">
-        <v>26305</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>0.1894929707050323</v>
-      </c>
-      <c r="H61" t="s">
-        <v>78</v>
+        <v>75666</v>
+      </c>
+      <c r="H61">
+        <v>0.17011559009552</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62">
-        <v>28906.24602764038</v>
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>23330.24643233652</v>
       </c>
       <c r="E62">
-        <v>3000</v>
-      </c>
-      <c r="F62">
-        <v>29073</v>
+        <v>11</v>
       </c>
       <c r="G62">
-        <v>0.1718409508466721</v>
-      </c>
-      <c r="H62" t="s">
-        <v>75</v>
+        <v>80647</v>
+      </c>
+      <c r="H62">
+        <v>0.1544122099876404</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63">
-        <v>21000.21875</v>
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63">
+        <v>43612.82696614355</v>
       </c>
       <c r="E63">
-        <v>4000</v>
-      </c>
-      <c r="F63">
-        <v>27500</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>0.2015632688999176</v>
-      </c>
-      <c r="H63" t="s">
-        <v>86</v>
+        <v>79707</v>
+      </c>
+      <c r="H63">
+        <v>0.1632217317819595</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2132,25 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>7315.785374334758</v>
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
       </c>
       <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>4000</v>
+        <v>8426.763084131617</v>
       </c>
       <c r="F64">
-        <v>5953</v>
+        <v>5000</v>
       </c>
       <c r="G64">
-        <v>0.1068217307329178</v>
-      </c>
-      <c r="H64" t="s">
-        <v>73</v>
+        <v>1414</v>
+      </c>
+      <c r="H64">
+        <v>0.06447815150022507</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2158,23 +2005,20 @@
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65">
-        <v>10393.83402067058</v>
+      <c r="C65" t="s">
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>4000</v>
+        <v>7388.403933037322</v>
       </c>
       <c r="F65">
-        <v>10540</v>
+        <v>5000</v>
       </c>
       <c r="G65">
-        <v>0.114983081817627</v>
-      </c>
-      <c r="H65" t="s">
-        <v>74</v>
+        <v>1094</v>
+      </c>
+      <c r="H65">
+        <v>0.07198363542556763</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2182,23 +2026,20 @@
       <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C66">
-        <v>11744.92942468356</v>
+      <c r="C66" t="s">
+        <v>76</v>
       </c>
       <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>4000</v>
+        <v>8068.539603853629</v>
       </c>
       <c r="F66">
-        <v>11227</v>
+        <v>5000</v>
       </c>
       <c r="G66">
-        <v>0.1159335151314735</v>
-      </c>
-      <c r="H66" t="s">
-        <v>75</v>
+        <v>1465</v>
+      </c>
+      <c r="H66">
+        <v>0.06936633586883545</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2206,23 +2047,20 @@
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C67">
-        <v>11040.98428497883</v>
+      <c r="C67" t="s">
+        <v>77</v>
       </c>
       <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>3000</v>
+        <v>8398.530413512126</v>
       </c>
       <c r="F67">
-        <v>18964</v>
+        <v>5000</v>
       </c>
       <c r="G67">
-        <v>0.1030237451195717</v>
-      </c>
-      <c r="H67" t="s">
-        <v>76</v>
+        <v>1635</v>
+      </c>
+      <c r="H67">
+        <v>0.06856943666934967</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2230,23 +2068,20 @@
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C68">
-        <v>19296.17072991285</v>
+      <c r="C68" t="s">
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>4000</v>
+        <v>8203.981749257675</v>
       </c>
       <c r="F68">
-        <v>11860</v>
+        <v>5000</v>
       </c>
       <c r="G68">
-        <v>0.1289954632520676</v>
-      </c>
-      <c r="H68" t="s">
-        <v>75</v>
+        <v>1798</v>
+      </c>
+      <c r="H68">
+        <v>0.07009553164243698</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2254,23 +2089,20 @@
       <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C69">
-        <v>8894.422423976959</v>
+      <c r="C69" t="s">
+        <v>78</v>
       </c>
       <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>4000</v>
+        <v>8400.087499999998</v>
       </c>
       <c r="F69">
-        <v>10577</v>
+        <v>5000</v>
       </c>
       <c r="G69">
-        <v>0.1107806265354156</v>
-      </c>
-      <c r="H69" t="s">
-        <v>73</v>
+        <v>1875</v>
+      </c>
+      <c r="H69">
+        <v>0.06736060976982117</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2278,20 +2110,20 @@
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C70">
-        <v>11873.15153064701</v>
-      </c>
-      <c r="E70">
-        <v>4000</v>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>8400.087499999996</v>
       </c>
       <c r="F70">
-        <v>13319</v>
+        <v>5000</v>
       </c>
       <c r="G70">
-        <v>0.1178952679038048</v>
-      </c>
-      <c r="H70" t="s">
-        <v>77</v>
+        <v>1875</v>
+      </c>
+      <c r="H70">
+        <v>0.06934403628110886</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2299,20 +2131,20 @@
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C71">
-        <v>18697.13946387502</v>
-      </c>
-      <c r="E71">
-        <v>4000</v>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71">
+        <v>8505.707350529472</v>
       </c>
       <c r="F71">
-        <v>15971</v>
+        <v>5000</v>
       </c>
       <c r="G71">
-        <v>0.1287698894739151</v>
-      </c>
-      <c r="H71" t="s">
-        <v>78</v>
+        <v>1680</v>
+      </c>
+      <c r="H71">
+        <v>0.0688294991850853</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2320,20 +2152,23 @@
       <c r="B72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C72">
-        <v>14355.55152962661</v>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <v>6089.327753572354</v>
       </c>
       <c r="E72">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>12459</v>
+        <v>4000</v>
       </c>
       <c r="G72">
-        <v>0.1194702610373497</v>
-      </c>
-      <c r="H72" t="s">
-        <v>77</v>
+        <v>4754</v>
+      </c>
+      <c r="H72">
+        <v>0.06387844681739807</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2341,23 +2176,23 @@
       <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C73">
-        <v>9601.092840129797</v>
+      <c r="C73" t="s">
+        <v>78</v>
       </c>
       <c r="D73">
+        <v>6493.003758254303</v>
+      </c>
+      <c r="E73">
         <v>3</v>
       </c>
-      <c r="E73">
-        <v>4000</v>
-      </c>
       <c r="F73">
-        <v>8118</v>
+        <v>4000</v>
       </c>
       <c r="G73">
-        <v>0.1112528815865517</v>
-      </c>
-      <c r="H73" t="s">
-        <v>79</v>
+        <v>6877</v>
+      </c>
+      <c r="H73">
+        <v>0.06457527726888657</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2365,23 +2200,20 @@
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C74">
-        <v>16063.00870217263</v>
+      <c r="C74" t="s">
+        <v>78</v>
       </c>
       <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>4000</v>
+        <v>8100.084374999997</v>
       </c>
       <c r="F74">
-        <v>13906</v>
+        <v>5000</v>
       </c>
       <c r="G74">
-        <v>0.1275554001331329</v>
-      </c>
-      <c r="H74" t="s">
-        <v>78</v>
+        <v>1500</v>
+      </c>
+      <c r="H74">
+        <v>0.06682422757148743</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2389,23 +2221,20 @@
       <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C75">
-        <v>9474.205722799134</v>
-      </c>
-      <c r="D75">
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="E75">
-        <v>4000</v>
-      </c>
       <c r="F75">
-        <v>12962</v>
+        <v>5000</v>
       </c>
       <c r="G75">
-        <v>0.1172465682029724</v>
-      </c>
-      <c r="H75" t="s">
-        <v>79</v>
+        <v>1281</v>
+      </c>
+      <c r="H75">
+        <v>0.06653336435556412</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2413,20 +2242,20 @@
       <c r="B76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C76">
-        <v>13457.54102115079</v>
-      </c>
-      <c r="E76">
-        <v>4000</v>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>8133.438039743039</v>
       </c>
       <c r="F76">
-        <v>12876</v>
+        <v>5000</v>
       </c>
       <c r="G76">
-        <v>0.1170296370983124</v>
-      </c>
-      <c r="H76" t="s">
-        <v>77</v>
+        <v>1870</v>
+      </c>
+      <c r="H76">
+        <v>0.07021742314100266</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2434,23 +2263,20 @@
       <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C77">
-        <v>11260.28893456071</v>
+      <c r="C77" t="s">
+        <v>81</v>
       </c>
       <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>4000</v>
+        <v>8306.096411134498</v>
       </c>
       <c r="F77">
-        <v>10309</v>
+        <v>5000</v>
       </c>
       <c r="G77">
-        <v>0.1169715076684952</v>
-      </c>
-      <c r="H77" t="s">
-        <v>74</v>
+        <v>1485</v>
+      </c>
+      <c r="H77">
+        <v>0.06609703600406647</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2458,20 +2284,20 @@
       <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C78">
-        <v>16523.68110495668</v>
-      </c>
-      <c r="E78">
-        <v>4000</v>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <v>8068.539603853629</v>
       </c>
       <c r="F78">
-        <v>16339</v>
+        <v>5000</v>
       </c>
       <c r="G78">
-        <v>0.1272660046815872</v>
-      </c>
-      <c r="H78" t="s">
-        <v>78</v>
+        <v>1465</v>
+      </c>
+      <c r="H78">
+        <v>0.06820710748434067</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2479,23 +2305,20 @@
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C79">
-        <v>12682.05420567016</v>
+      <c r="C79" t="s">
+        <v>78</v>
       </c>
       <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79">
-        <v>3000</v>
+        <v>8400.087499999998</v>
       </c>
       <c r="F79">
-        <v>18669</v>
+        <v>5000</v>
       </c>
       <c r="G79">
-        <v>0.1048076525330544</v>
-      </c>
-      <c r="H79" t="s">
-        <v>78</v>
+        <v>1875</v>
+      </c>
+      <c r="H79">
+        <v>0.06666853278875351</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2503,23 +2326,23 @@
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C80">
-        <v>15243.2002588794</v>
+      <c r="C80" t="s">
+        <v>80</v>
       </c>
       <c r="D80">
+        <v>281.8408560883124</v>
+      </c>
+      <c r="E80">
         <v>4</v>
       </c>
-      <c r="E80">
-        <v>4000</v>
-      </c>
       <c r="F80">
-        <v>16726</v>
+        <v>5000</v>
       </c>
       <c r="G80">
-        <v>0.1259458512067795</v>
-      </c>
-      <c r="H80" t="s">
-        <v>78</v>
+        <v>1333</v>
+      </c>
+      <c r="H80">
+        <v>0.07029108703136444</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2527,23 +2350,20 @@
       <c r="B81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C81">
-        <v>18962.62445460234</v>
+      <c r="C81" t="s">
+        <v>76</v>
       </c>
       <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>4000</v>
+        <v>8246.215762579701</v>
       </c>
       <c r="F81">
-        <v>14551</v>
+        <v>5000</v>
       </c>
       <c r="G81">
-        <v>0.1320659518241882</v>
-      </c>
-      <c r="H81" t="s">
-        <v>80</v>
+        <v>1819</v>
+      </c>
+      <c r="H81">
+        <v>0.06631328165531158</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2551,20 +2371,20 @@
       <c r="B82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C82">
-        <v>14412.28797854569</v>
-      </c>
-      <c r="E82">
-        <v>4000</v>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82">
+        <v>8418.509118407788</v>
       </c>
       <c r="F82">
-        <v>15626</v>
+        <v>5000</v>
       </c>
       <c r="G82">
-        <v>0.1252869814634323</v>
-      </c>
-      <c r="H82" t="s">
-        <v>81</v>
+        <v>1821</v>
+      </c>
+      <c r="H82">
+        <v>0.06807821989059448</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2572,23 +2392,20 @@
       <c r="B83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C83">
-        <v>17654.48639059853</v>
+      <c r="C83" t="s">
+        <v>80</v>
       </c>
       <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>4000</v>
+        <v>8379.432858780556</v>
       </c>
       <c r="F83">
-        <v>15720</v>
+        <v>5000</v>
       </c>
       <c r="G83">
-        <v>0.1304486840963364</v>
-      </c>
-      <c r="H83" t="s">
-        <v>78</v>
+        <v>1629</v>
+      </c>
+      <c r="H83">
+        <v>0.07010377198457718</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2596,23 +2413,20 @@
       <c r="B84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C84">
-        <v>10301.90246994109</v>
+      <c r="C84" t="s">
+        <v>75</v>
       </c>
       <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>4000</v>
+        <v>8100.084375000001</v>
       </c>
       <c r="F84">
-        <v>12115</v>
+        <v>5000</v>
       </c>
       <c r="G84">
-        <v>0.1127280667424202</v>
-      </c>
-      <c r="H84" t="s">
-        <v>82</v>
+        <v>1500</v>
+      </c>
+      <c r="H84">
+        <v>0.06611892580986023</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2620,23 +2434,23 @@
       <c r="B85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C85">
-        <v>12279.30278602262</v>
+      <c r="C85" t="s">
+        <v>80</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>8153.060625646064</v>
       </c>
       <c r="E85">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>12259</v>
+        <v>4000</v>
       </c>
       <c r="G85">
-        <v>0.1178876683115959</v>
-      </c>
-      <c r="H85" t="s">
-        <v>78</v>
+        <v>6859</v>
+      </c>
+      <c r="H85">
+        <v>0.06594405323266983</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2644,20 +2458,20 @@
       <c r="B86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C86">
-        <v>13695.37035722906</v>
-      </c>
-      <c r="E86">
-        <v>4000</v>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86">
+        <v>8100.084375000001</v>
       </c>
       <c r="F86">
-        <v>14615</v>
+        <v>5000</v>
       </c>
       <c r="G86">
-        <v>0.1232962235808372</v>
-      </c>
-      <c r="H86" t="s">
-        <v>77</v>
+        <v>1500</v>
+      </c>
+      <c r="H86">
+        <v>0.07024973630905151</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2665,20 +2479,20 @@
       <c r="B87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C87">
-        <v>23093.67825383182</v>
-      </c>
-      <c r="E87">
-        <v>4000</v>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87">
+        <v>7293.944022880977</v>
       </c>
       <c r="F87">
-        <v>14647</v>
+        <v>5000</v>
       </c>
       <c r="G87">
-        <v>0.1333546489477158</v>
-      </c>
-      <c r="H87" t="s">
-        <v>80</v>
+        <v>1382</v>
+      </c>
+      <c r="H87">
+        <v>0.07187464833259583</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2686,23 +2500,20 @@
       <c r="B88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C88">
-        <v>13929.45119232876</v>
+      <c r="C88" t="s">
+        <v>82</v>
       </c>
       <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>4000</v>
+        <v>8545.151127100897</v>
       </c>
       <c r="F88">
-        <v>13563</v>
+        <v>5000</v>
       </c>
       <c r="G88">
-        <v>0.1213949844241142</v>
-      </c>
-      <c r="H88" t="s">
-        <v>75</v>
+        <v>1731</v>
+      </c>
+      <c r="H88">
+        <v>0.06798149645328522</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2710,20 +2521,20 @@
       <c r="B89" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C89">
-        <v>19818.59846016109</v>
-      </c>
-      <c r="E89">
-        <v>4000</v>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>8250.838740384592</v>
       </c>
       <c r="F89">
-        <v>14588</v>
+        <v>5000</v>
       </c>
       <c r="G89">
-        <v>0.1316783726215363</v>
-      </c>
-      <c r="H89" t="s">
-        <v>81</v>
+        <v>1820</v>
+      </c>
+      <c r="H89">
+        <v>0.06519749760627747</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2731,23 +2542,20 @@
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C90">
-        <v>15681.11447863931</v>
+      <c r="C90" t="s">
+        <v>78</v>
       </c>
       <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90">
-        <v>4000</v>
+        <v>8250.085937499998</v>
       </c>
       <c r="F90">
-        <v>13870</v>
+        <v>5000</v>
       </c>
       <c r="G90">
-        <v>0.1267938762903214</v>
-      </c>
-      <c r="H90" t="s">
-        <v>78</v>
+        <v>1687</v>
+      </c>
+      <c r="H90">
+        <v>0.06825292110443115</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2755,23 +2563,20 @@
       <c r="B91" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C91">
-        <v>12039.54752283692</v>
+      <c r="C91" t="s">
+        <v>84</v>
       </c>
       <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <v>3000</v>
+        <v>7938.123126414634</v>
       </c>
       <c r="F91">
-        <v>21003</v>
+        <v>5000</v>
       </c>
       <c r="G91">
-        <v>0.106419138610363</v>
-      </c>
-      <c r="H91" t="s">
-        <v>73</v>
+        <v>1658</v>
+      </c>
+      <c r="H91">
+        <v>0.0708000659942627</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2779,23 +2584,20 @@
       <c r="B92" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C92">
-        <v>12516.44587019757</v>
+      <c r="C92" t="s">
+        <v>76</v>
       </c>
       <c r="D92">
-        <v>4</v>
-      </c>
-      <c r="E92">
-        <v>3000</v>
+        <v>8440.93266899453</v>
       </c>
       <c r="F92">
-        <v>19826</v>
+        <v>5000</v>
       </c>
       <c r="G92">
-        <v>0.108306422829628</v>
-      </c>
-      <c r="H92" t="s">
-        <v>76</v>
+        <v>1672</v>
+      </c>
+      <c r="H92">
+        <v>0.06785226613283157</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2803,23 +2605,20 @@
       <c r="B93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C93">
-        <v>19194.05770705855</v>
+      <c r="C93" t="s">
+        <v>77</v>
       </c>
       <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>4000</v>
+        <v>8335.717556616964</v>
       </c>
       <c r="F93">
-        <v>13544</v>
+        <v>5000</v>
       </c>
       <c r="G93">
-        <v>0.1316217482089996</v>
-      </c>
-      <c r="H93" t="s">
-        <v>73</v>
+        <v>1699</v>
+      </c>
+      <c r="H93">
+        <v>0.0687437430024147</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2827,20 +2626,23 @@
       <c r="B94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C94">
-        <v>18000.1875</v>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94">
+        <v>6926.834640583825</v>
       </c>
       <c r="E94">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>13750</v>
+        <v>4000</v>
       </c>
       <c r="G94">
-        <v>0.1266082674264908</v>
-      </c>
-      <c r="H94" t="s">
-        <v>83</v>
+        <v>5523</v>
+      </c>
+      <c r="H94">
+        <v>0.06277373433113098</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2848,23 +2650,20 @@
       <c r="B95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C95">
-        <v>10281.55335145478</v>
+      <c r="C95" t="s">
+        <v>83</v>
       </c>
       <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95">
-        <v>3000</v>
+        <v>8154.642313176831</v>
       </c>
       <c r="F95">
-        <v>18187</v>
+        <v>5000</v>
       </c>
       <c r="G95">
-        <v>0.1029930934309959</v>
-      </c>
-      <c r="H95" t="s">
-        <v>80</v>
+        <v>1553</v>
+      </c>
+      <c r="H95">
+        <v>0.06881646066904068</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2872,20 +2671,20 @@
       <c r="B96" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C96">
-        <v>18760.12171959298</v>
-      </c>
-      <c r="E96">
-        <v>4000</v>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96">
+        <v>8428.984827983884</v>
       </c>
       <c r="F96">
-        <v>17688</v>
+        <v>5000</v>
       </c>
       <c r="G96">
-        <v>0.1305695921182632</v>
-      </c>
-      <c r="H96" t="s">
-        <v>78</v>
+        <v>1536</v>
+      </c>
+      <c r="H96">
+        <v>0.06982709467411041</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2893,23 +2692,23 @@
       <c r="B97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C97">
-        <v>9918.044020764137</v>
+      <c r="C97" t="s">
+        <v>86</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>6896.943531766483</v>
       </c>
       <c r="E97">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>10421</v>
+        <v>4000</v>
       </c>
       <c r="G97">
-        <v>0.1177231818437576</v>
-      </c>
-      <c r="H97" t="s">
-        <v>75</v>
+        <v>6794</v>
+      </c>
+      <c r="H97">
+        <v>0.0658465102314949</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2917,23 +2716,23 @@
       <c r="B98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C98">
-        <v>8898.651745544128</v>
+      <c r="C98" t="s">
+        <v>80</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>7807.886160852348</v>
       </c>
       <c r="E98">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>10483</v>
+        <v>4000</v>
       </c>
       <c r="G98">
-        <v>0.1214259639382362</v>
-      </c>
-      <c r="H98" t="s">
-        <v>84</v>
+        <v>5436</v>
+      </c>
+      <c r="H98">
+        <v>0.06378200650215149</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2941,23 +2740,20 @@
       <c r="B99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C99">
-        <v>8329.732017170276</v>
+      <c r="C99" t="s">
+        <v>77</v>
       </c>
       <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>4000</v>
+        <v>8404.100353036922</v>
       </c>
       <c r="F99">
-        <v>11511</v>
+        <v>5000</v>
       </c>
       <c r="G99">
-        <v>0.1119235977530479</v>
-      </c>
-      <c r="H99" t="s">
-        <v>79</v>
+        <v>1632</v>
+      </c>
+      <c r="H99">
+        <v>0.06854239851236343</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2965,23 +2761,20 @@
       <c r="B100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C100">
-        <v>11523.055894978</v>
+      <c r="C100" t="s">
+        <v>79</v>
       </c>
       <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>4000</v>
+        <v>7821.617404300882</v>
       </c>
       <c r="F100">
-        <v>10954</v>
+        <v>5000</v>
       </c>
       <c r="G100">
-        <v>0.1170730143785477</v>
-      </c>
-      <c r="H100" t="s">
-        <v>83</v>
+        <v>1837</v>
+      </c>
+      <c r="H100">
+        <v>0.07085467129945755</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2989,23 +2782,20 @@
       <c r="B101" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C101">
-        <v>16878.99920903178</v>
+      <c r="C101" t="s">
+        <v>76</v>
       </c>
       <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>4000</v>
+        <v>8081.677292079367</v>
       </c>
       <c r="F101">
-        <v>14668</v>
+        <v>5000</v>
       </c>
       <c r="G101">
-        <v>0.1240905225276947</v>
-      </c>
-      <c r="H101" t="s">
-        <v>85</v>
+        <v>1697</v>
+      </c>
+      <c r="H101">
+        <v>0.06557901948690414</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3013,23 +2803,20 @@
       <c r="B102" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C102">
-        <v>25620.55384292443</v>
+      <c r="C102" t="s">
+        <v>85</v>
       </c>
       <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>4000</v>
+        <v>7800.081250000001</v>
       </c>
       <c r="F102">
-        <v>12698</v>
+        <v>5000</v>
       </c>
       <c r="G102">
-        <v>0.1400786489248276</v>
-      </c>
-      <c r="H102" t="s">
-        <v>86</v>
+        <v>1500</v>
+      </c>
+      <c r="H102">
+        <v>0.07002706825733185</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3037,23 +2824,20 @@
       <c r="B103" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C103">
-        <v>9744.410137761592</v>
+      <c r="C103" t="s">
+        <v>87</v>
       </c>
       <c r="D103">
-        <v>4</v>
-      </c>
-      <c r="E103">
-        <v>4000</v>
+        <v>8100.084374999995</v>
       </c>
       <c r="F103">
-        <v>10884</v>
+        <v>5000</v>
       </c>
       <c r="G103">
-        <v>0.1119994893670082</v>
-      </c>
-      <c r="H103" t="s">
-        <v>73</v>
+        <v>1500</v>
+      </c>
+      <c r="H103">
+        <v>0.06817946583032608</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3061,23 +2845,20 @@
       <c r="B104" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C104">
-        <v>8014.28683029249</v>
+      <c r="C104" t="s">
+        <v>77</v>
       </c>
       <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104">
-        <v>4000</v>
+        <v>8190.717523668641</v>
       </c>
       <c r="F104">
-        <v>6783</v>
+        <v>5000</v>
       </c>
       <c r="G104">
-        <v>0.1085098683834076</v>
-      </c>
-      <c r="H104" t="s">
-        <v>73</v>
+        <v>1776</v>
+      </c>
+      <c r="H104">
+        <v>0.06865127384662628</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3085,20 +2866,20 @@
       <c r="B105" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C105">
-        <v>17000.17708333334</v>
-      </c>
-      <c r="E105">
-        <v>4000</v>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105">
+        <v>8197.745255545053</v>
       </c>
       <c r="F105">
-        <v>13750</v>
+        <v>5000</v>
       </c>
       <c r="G105">
-        <v>0.1227096393704414</v>
-      </c>
-      <c r="H105" t="s">
-        <v>86</v>
+        <v>1124</v>
+      </c>
+      <c r="H105">
+        <v>0.06351743638515472</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3106,23 +2887,20 @@
       <c r="B106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C106">
-        <v>14967.85730041158</v>
+      <c r="C106" t="s">
+        <v>77</v>
       </c>
       <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106">
-        <v>4000</v>
+        <v>8293.087135954498</v>
       </c>
       <c r="F106">
-        <v>12549</v>
+        <v>5000</v>
       </c>
       <c r="G106">
-        <v>0.125190868973732</v>
-      </c>
-      <c r="H106" t="s">
-        <v>73</v>
+        <v>1602</v>
+      </c>
+      <c r="H106">
+        <v>0.06859505176544189</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3130,23 +2908,20 @@
       <c r="B107" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C107">
-        <v>11222.59206800395</v>
+      <c r="C107" t="s">
+        <v>79</v>
       </c>
       <c r="D107">
-        <v>4</v>
-      </c>
-      <c r="E107">
-        <v>4000</v>
+        <v>8104.445837257795</v>
       </c>
       <c r="F107">
-        <v>13507</v>
+        <v>5000</v>
       </c>
       <c r="G107">
-        <v>0.1210097447037697</v>
-      </c>
-      <c r="H107" t="s">
-        <v>78</v>
+        <v>1787</v>
+      </c>
+      <c r="H107">
+        <v>0.06867457181215286</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3154,23 +2929,20 @@
       <c r="B108" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C108">
-        <v>10762.16687008687</v>
+      <c r="C108" t="s">
+        <v>77</v>
       </c>
       <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>4000</v>
+        <v>8549.012896478675</v>
       </c>
       <c r="F108">
-        <v>12067</v>
+        <v>5000</v>
       </c>
       <c r="G108">
-        <v>0.1192628517746925</v>
-      </c>
-      <c r="H108" t="s">
-        <v>75</v>
+        <v>1741</v>
+      </c>
+      <c r="H108">
+        <v>0.06904519349336624</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3178,23 +2950,20 @@
       <c r="B109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C109">
-        <v>10150.37822267846</v>
+      <c r="C109" t="s">
+        <v>85</v>
       </c>
       <c r="D109">
-        <v>4</v>
-      </c>
-      <c r="E109">
-        <v>4000</v>
+        <v>7121.713968693998</v>
       </c>
       <c r="F109">
-        <v>11293</v>
+        <v>5000</v>
       </c>
       <c r="G109">
-        <v>0.1127162575721741</v>
-      </c>
-      <c r="H109" t="s">
-        <v>73</v>
+        <v>1130</v>
+      </c>
+      <c r="H109">
+        <v>0.0721503421664238</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3202,23 +2971,23 @@
       <c r="B110" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C110">
-        <v>7068.884892708651</v>
+      <c r="C110" t="s">
+        <v>77</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>7683.85779525855</v>
       </c>
       <c r="E110">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>9531</v>
+        <v>4000</v>
       </c>
       <c r="G110">
-        <v>0.1053865551948547</v>
-      </c>
-      <c r="H110" t="s">
-        <v>79</v>
+        <v>5437</v>
+      </c>
+      <c r="H110">
+        <v>0.06365588307380676</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3226,20 +2995,20 @@
       <c r="B111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C111">
-        <v>12548.53180770085</v>
-      </c>
-      <c r="E111">
-        <v>4000</v>
+      <c r="C111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111">
+        <v>8345.592479100058</v>
       </c>
       <c r="F111">
-        <v>14825</v>
+        <v>5000</v>
       </c>
       <c r="G111">
-        <v>0.1226081103086472</v>
-      </c>
-      <c r="H111" t="s">
-        <v>79</v>
+        <v>1736</v>
+      </c>
+      <c r="H111">
+        <v>0.06852811574935913</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3247,20 +3016,20 @@
       <c r="B112" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C112">
-        <v>12154.78420552896</v>
-      </c>
-      <c r="E112">
-        <v>4000</v>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112">
+        <v>8250.085937499998</v>
       </c>
       <c r="F112">
-        <v>14096</v>
+        <v>5000</v>
       </c>
       <c r="G112">
-        <v>0.1186822429299355</v>
-      </c>
-      <c r="H112" t="s">
-        <v>87</v>
+        <v>1687</v>
+      </c>
+      <c r="H112">
+        <v>0.06459803879261017</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3268,20 +3037,20 @@
       <c r="B113" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C113">
-        <v>22500.234375</v>
-      </c>
-      <c r="E113">
-        <v>4000</v>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113">
+        <v>8100.084374999997</v>
       </c>
       <c r="F113">
-        <v>15625</v>
+        <v>5000</v>
       </c>
       <c r="G113">
-        <v>0.134052574634552</v>
-      </c>
-      <c r="H113" t="s">
-        <v>73</v>
+        <v>1500</v>
+      </c>
+      <c r="H113">
+        <v>0.06440728157758713</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3289,23 +3058,20 @@
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C114">
-        <v>7926.636041628328</v>
+      <c r="C114" t="s">
+        <v>78</v>
       </c>
       <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114">
-        <v>4000</v>
+        <v>8301.908538134749</v>
       </c>
       <c r="F114">
-        <v>10038</v>
+        <v>5000</v>
       </c>
       <c r="G114">
-        <v>0.1052944213151932</v>
-      </c>
-      <c r="H114" t="s">
-        <v>75</v>
+        <v>1791</v>
+      </c>
+      <c r="H114">
+        <v>0.06590689718723297</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3313,20 +3079,20 @@
       <c r="B115" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C115">
-        <v>13500.140625</v>
-      </c>
-      <c r="E115">
-        <v>4000</v>
+      <c r="C115" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115">
+        <v>8290.059378663685</v>
       </c>
       <c r="F115">
-        <v>12750</v>
+        <v>5000</v>
       </c>
       <c r="G115">
-        <v>0.119507871568203</v>
-      </c>
-      <c r="H115" t="s">
-        <v>79</v>
+        <v>1705</v>
+      </c>
+      <c r="H115">
+        <v>0.06789936870336533</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3334,23 +3100,20 @@
       <c r="B116" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C116">
-        <v>12929.44405377297</v>
+      <c r="C116" t="s">
+        <v>78</v>
       </c>
       <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116">
-        <v>3000</v>
+        <v>8250.085937499998</v>
       </c>
       <c r="F116">
-        <v>17823</v>
+        <v>5000</v>
       </c>
       <c r="G116">
-        <v>0.1061631813645363</v>
-      </c>
-      <c r="H116" t="s">
-        <v>79</v>
+        <v>1687</v>
+      </c>
+      <c r="H116">
+        <v>0.06749467551708221</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3358,23 +3121,20 @@
       <c r="B117" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C117">
-        <v>10935.28218242004</v>
+      <c r="C117" t="s">
+        <v>87</v>
       </c>
       <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>3000</v>
+        <v>8100.084374999995</v>
       </c>
       <c r="F117">
-        <v>18707</v>
+        <v>5000</v>
       </c>
       <c r="G117">
-        <v>0.1047737151384354</v>
-      </c>
-      <c r="H117" t="s">
-        <v>75</v>
+        <v>1500</v>
+      </c>
+      <c r="H117">
+        <v>0.06640994548797607</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3382,20 +3142,20 @@
       <c r="B118" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C118">
-        <v>22000.22916666666</v>
-      </c>
-      <c r="E118">
-        <v>4000</v>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118">
+        <v>8457.748804748635</v>
       </c>
       <c r="F118">
-        <v>16250</v>
+        <v>5000</v>
       </c>
       <c r="G118">
-        <v>0.1321997940540314</v>
-      </c>
-      <c r="H118" t="s">
-        <v>78</v>
+        <v>1683</v>
+      </c>
+      <c r="H118">
+        <v>0.06868917495012283</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3403,20 +3163,20 @@
       <c r="B119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C119">
-        <v>16291.12346623057</v>
-      </c>
-      <c r="E119">
-        <v>4000</v>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119">
+        <v>8400.087499999996</v>
       </c>
       <c r="F119">
-        <v>14461</v>
+        <v>5000</v>
       </c>
       <c r="G119">
-        <v>0.1265804469585419</v>
-      </c>
-      <c r="H119" t="s">
-        <v>81</v>
+        <v>1875</v>
+      </c>
+      <c r="H119">
+        <v>0.06608754396438599</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3424,23 +3184,20 @@
       <c r="B120" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C120">
-        <v>12595.18054557627</v>
+      <c r="C120" t="s">
+        <v>80</v>
       </c>
       <c r="D120">
-        <v>3</v>
-      </c>
-      <c r="E120">
-        <v>4000</v>
+        <v>8383.432598373669</v>
       </c>
       <c r="F120">
-        <v>11681</v>
+        <v>5000</v>
       </c>
       <c r="G120">
-        <v>0.1219251826405525</v>
-      </c>
-      <c r="H120" t="s">
-        <v>79</v>
+        <v>1498</v>
+      </c>
+      <c r="H120">
+        <v>0.06950654089450836</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3448,20 +3205,20 @@
       <c r="B121" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C121">
-        <v>24636.59674474951</v>
-      </c>
-      <c r="E121">
-        <v>4000</v>
+      <c r="C121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121">
+        <v>7936.208825150433</v>
       </c>
       <c r="F121">
-        <v>15259</v>
+        <v>5000</v>
       </c>
       <c r="G121">
-        <v>0.1352076828479767</v>
-      </c>
-      <c r="H121" t="s">
-        <v>75</v>
+        <v>1718</v>
+      </c>
+      <c r="H121">
+        <v>0.07063692063093185</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3469,23 +3226,23 @@
       <c r="B122" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C122">
-        <v>10786.4280850722</v>
+      <c r="C122" t="s">
+        <v>86</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>7598.843025119188</v>
       </c>
       <c r="E122">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F122">
-        <v>10441</v>
+        <v>4000</v>
       </c>
       <c r="G122">
-        <v>0.1161623224616051</v>
-      </c>
-      <c r="H122" t="s">
-        <v>74</v>
+        <v>5319</v>
+      </c>
+      <c r="H122">
+        <v>0.06272377073764801</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3493,20 +3250,20 @@
       <c r="B123" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C123">
-        <v>22000.22916666667</v>
-      </c>
-      <c r="E123">
-        <v>4000</v>
+      <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123">
+        <v>7442.226788761301</v>
       </c>
       <c r="F123">
-        <v>13750</v>
+        <v>5000</v>
       </c>
       <c r="G123">
-        <v>0.1296708732843399</v>
-      </c>
-      <c r="H123" t="s">
-        <v>78</v>
+        <v>1394</v>
+      </c>
+      <c r="H123">
+        <v>0.07148837298154831</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3514,23 +3271,20 @@
       <c r="B124" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C124">
-        <v>13696.91214908652</v>
+      <c r="C124" t="s">
+        <v>88</v>
       </c>
       <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="E124">
-        <v>4000</v>
+        <v>8000.083333333333</v>
       </c>
       <c r="F124">
-        <v>11621</v>
+        <v>5000</v>
       </c>
       <c r="G124">
-        <v>0.1214068457484245</v>
-      </c>
-      <c r="H124" t="s">
-        <v>75</v>
+        <v>1250</v>
+      </c>
+      <c r="H124">
+        <v>0.0638846829533577</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3538,20 +3292,23 @@
       <c r="B125" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C125">
-        <v>24918.3441584956</v>
+      <c r="C125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125">
+        <v>7846.686104218707</v>
       </c>
       <c r="E125">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>14776</v>
+        <v>4000</v>
       </c>
       <c r="G125">
-        <v>0.1380515098571777</v>
-      </c>
-      <c r="H125" t="s">
-        <v>86</v>
+        <v>6249</v>
+      </c>
+      <c r="H125">
+        <v>0.06471730768680573</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3559,25 +3316,25 @@
         <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126">
-        <v>7846.686104218707</v>
+        <v>74</v>
+      </c>
+      <c r="C126" t="s">
+        <v>88</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>10786.4280850722</v>
       </c>
       <c r="E126">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="F126">
-        <v>6249</v>
+        <v>4000</v>
       </c>
       <c r="G126">
-        <v>0.06471730768680573</v>
-      </c>
-      <c r="H126" t="s">
-        <v>73</v>
+        <v>10441</v>
+      </c>
+      <c r="H126">
+        <v>0.1161623224616051</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3585,20 +3342,20 @@
       <c r="B127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C127">
-        <v>8000.083333333333</v>
-      </c>
-      <c r="E127">
-        <v>5000</v>
+      <c r="C127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127">
+        <v>24918.3441584956</v>
       </c>
       <c r="F127">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="G127">
-        <v>0.0638846829533577</v>
-      </c>
-      <c r="H127" t="s">
-        <v>74</v>
+        <v>14776</v>
+      </c>
+      <c r="H127">
+        <v>0.1380515098571777</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3606,20 +3363,23 @@
       <c r="B128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C128">
-        <v>7442.226788761301</v>
+      <c r="C128" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128">
+        <v>13696.91214908652</v>
       </c>
       <c r="E128">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F128">
-        <v>1394</v>
+        <v>4000</v>
       </c>
       <c r="G128">
-        <v>0.07148837298154831</v>
-      </c>
-      <c r="H128" t="s">
-        <v>75</v>
+        <v>11621</v>
+      </c>
+      <c r="H128">
+        <v>0.1214068457484245</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3627,23 +3387,20 @@
       <c r="B129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C129">
-        <v>7598.843025119188</v>
+      <c r="C129" t="s">
+        <v>77</v>
       </c>
       <c r="D129">
-        <v>3</v>
-      </c>
-      <c r="E129">
-        <v>4000</v>
+        <v>22000.22916666667</v>
       </c>
       <c r="F129">
-        <v>5319</v>
+        <v>4000</v>
       </c>
       <c r="G129">
-        <v>0.06272377073764801</v>
-      </c>
-      <c r="H129" t="s">
-        <v>76</v>
+        <v>13750</v>
+      </c>
+      <c r="H129">
+        <v>0.1296708732843399</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3651,20 +3408,20 @@
       <c r="B130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C130">
-        <v>7936.208825150433</v>
-      </c>
-      <c r="E130">
-        <v>5000</v>
+      <c r="C130" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130">
+        <v>24636.59674474951</v>
       </c>
       <c r="F130">
-        <v>1718</v>
+        <v>4000</v>
       </c>
       <c r="G130">
-        <v>0.07063692063093185</v>
-      </c>
-      <c r="H130" t="s">
-        <v>75</v>
+        <v>15259</v>
+      </c>
+      <c r="H130">
+        <v>0.1352076828479767</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3672,20 +3429,23 @@
       <c r="B131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C131">
-        <v>8383.432598373669</v>
+      <c r="C131" t="s">
+        <v>78</v>
+      </c>
+      <c r="D131">
+        <v>12595.18054557627</v>
       </c>
       <c r="E131">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F131">
-        <v>1498</v>
+        <v>4000</v>
       </c>
       <c r="G131">
-        <v>0.06950654089450836</v>
-      </c>
-      <c r="H131" t="s">
-        <v>73</v>
+        <v>11681</v>
+      </c>
+      <c r="H131">
+        <v>0.1219251826405525</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3693,20 +3453,20 @@
       <c r="B132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C132">
-        <v>8400.087499999996</v>
-      </c>
-      <c r="E132">
-        <v>5000</v>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132">
+        <v>16291.12346623057</v>
       </c>
       <c r="F132">
-        <v>1875</v>
+        <v>4000</v>
       </c>
       <c r="G132">
-        <v>0.06608754396438599</v>
-      </c>
-      <c r="H132" t="s">
-        <v>77</v>
+        <v>14461</v>
+      </c>
+      <c r="H132">
+        <v>0.1265804469585419</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3714,20 +3474,20 @@
       <c r="B133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C133">
-        <v>8457.748804748635</v>
-      </c>
-      <c r="E133">
-        <v>5000</v>
+      <c r="C133" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133">
+        <v>22000.22916666666</v>
       </c>
       <c r="F133">
-        <v>1683</v>
+        <v>4000</v>
       </c>
       <c r="G133">
-        <v>0.06868917495012283</v>
-      </c>
-      <c r="H133" t="s">
-        <v>78</v>
+        <v>16250</v>
+      </c>
+      <c r="H133">
+        <v>0.1321997940540314</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3735,20 +3495,23 @@
       <c r="B134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C134">
-        <v>8100.084374999995</v>
+      <c r="C134" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134">
+        <v>10935.28218242004</v>
       </c>
       <c r="E134">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F134">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G134">
-        <v>0.06640994548797607</v>
-      </c>
-      <c r="H134" t="s">
-        <v>77</v>
+        <v>18707</v>
+      </c>
+      <c r="H134">
+        <v>0.1047737151384354</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3756,20 +3519,23 @@
       <c r="B135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C135">
-        <v>8250.085937499998</v>
+      <c r="C135" t="s">
+        <v>78</v>
+      </c>
+      <c r="D135">
+        <v>12929.44405377297</v>
       </c>
       <c r="E135">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F135">
-        <v>1687</v>
+        <v>3000</v>
       </c>
       <c r="G135">
-        <v>0.06749467551708221</v>
-      </c>
-      <c r="H135" t="s">
-        <v>79</v>
+        <v>17823</v>
+      </c>
+      <c r="H135">
+        <v>0.1061631813645363</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3777,20 +3543,20 @@
       <c r="B136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C136">
-        <v>8290.059378663685</v>
-      </c>
-      <c r="E136">
-        <v>5000</v>
+      <c r="C136" t="s">
+        <v>78</v>
+      </c>
+      <c r="D136">
+        <v>13500.140625</v>
       </c>
       <c r="F136">
-        <v>1705</v>
+        <v>4000</v>
       </c>
       <c r="G136">
-        <v>0.06789936870336533</v>
-      </c>
-      <c r="H136" t="s">
-        <v>78</v>
+        <v>12750</v>
+      </c>
+      <c r="H136">
+        <v>0.119507871568203</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3798,20 +3564,23 @@
       <c r="B137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C137">
-        <v>8301.908538134749</v>
+      <c r="C137" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137">
+        <v>7926.636041628328</v>
       </c>
       <c r="E137">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F137">
-        <v>1791</v>
+        <v>4000</v>
       </c>
       <c r="G137">
-        <v>0.06590689718723297</v>
-      </c>
-      <c r="H137" t="s">
-        <v>79</v>
+        <v>10038</v>
+      </c>
+      <c r="H137">
+        <v>0.1052944213151932</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3819,20 +3588,20 @@
       <c r="B138" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C138">
-        <v>8100.084374999997</v>
-      </c>
-      <c r="E138">
-        <v>5000</v>
+      <c r="C138" t="s">
+        <v>80</v>
+      </c>
+      <c r="D138">
+        <v>22500.234375</v>
       </c>
       <c r="F138">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G138">
-        <v>0.06440728157758713</v>
-      </c>
-      <c r="H138" t="s">
-        <v>77</v>
+        <v>15625</v>
+      </c>
+      <c r="H138">
+        <v>0.134052574634552</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -3840,20 +3609,20 @@
       <c r="B139" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C139">
-        <v>8250.085937499998</v>
-      </c>
-      <c r="E139">
-        <v>5000</v>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139">
+        <v>12154.78420552896</v>
       </c>
       <c r="F139">
-        <v>1687</v>
+        <v>4000</v>
       </c>
       <c r="G139">
-        <v>0.06459803879261017</v>
-      </c>
-      <c r="H139" t="s">
-        <v>74</v>
+        <v>14096</v>
+      </c>
+      <c r="H139">
+        <v>0.1186822429299355</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3861,20 +3630,20 @@
       <c r="B140" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C140">
-        <v>8345.592479100058</v>
-      </c>
-      <c r="E140">
-        <v>5000</v>
+      <c r="C140" t="s">
+        <v>78</v>
+      </c>
+      <c r="D140">
+        <v>12548.53180770085</v>
       </c>
       <c r="F140">
-        <v>1736</v>
+        <v>4000</v>
       </c>
       <c r="G140">
-        <v>0.06852811574935913</v>
-      </c>
-      <c r="H140" t="s">
-        <v>78</v>
+        <v>14825</v>
+      </c>
+      <c r="H140">
+        <v>0.1226081103086472</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -3882,23 +3651,23 @@
       <c r="B141" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C141">
-        <v>7683.85779525855</v>
+      <c r="C141" t="s">
+        <v>78</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>7068.884892708651</v>
       </c>
       <c r="E141">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F141">
-        <v>5437</v>
+        <v>4000</v>
       </c>
       <c r="G141">
-        <v>0.06365588307380676</v>
-      </c>
-      <c r="H141" t="s">
-        <v>78</v>
+        <v>9531</v>
+      </c>
+      <c r="H141">
+        <v>0.1053865551948547</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -3906,20 +3675,23 @@
       <c r="B142" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C142">
-        <v>8549.012896478675</v>
+      <c r="C142" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142">
+        <v>10150.37822267846</v>
       </c>
       <c r="E142">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F142">
-        <v>1741</v>
+        <v>4000</v>
       </c>
       <c r="G142">
-        <v>0.06904519349336624</v>
-      </c>
-      <c r="H142" t="s">
-        <v>78</v>
+        <v>11293</v>
+      </c>
+      <c r="H142">
+        <v>0.1127162575721741</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3927,20 +3699,23 @@
       <c r="B143" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C143">
-        <v>7121.713968693998</v>
+      <c r="C143" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143">
+        <v>10762.16687008687</v>
       </c>
       <c r="E143">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1130</v>
+        <v>4000</v>
       </c>
       <c r="G143">
-        <v>0.0721503421664238</v>
-      </c>
-      <c r="H143" t="s">
-        <v>80</v>
+        <v>12067</v>
+      </c>
+      <c r="H143">
+        <v>0.1192628517746925</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3948,20 +3723,23 @@
       <c r="B144" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C144">
-        <v>8104.445837257795</v>
+      <c r="C144" t="s">
+        <v>77</v>
+      </c>
+      <c r="D144">
+        <v>11222.59206800395</v>
       </c>
       <c r="E144">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>1787</v>
+        <v>4000</v>
       </c>
       <c r="G144">
-        <v>0.06867457181215286</v>
-      </c>
-      <c r="H144" t="s">
-        <v>81</v>
+        <v>13507</v>
+      </c>
+      <c r="H144">
+        <v>0.1210097447037697</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -3969,20 +3747,23 @@
       <c r="B145" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C145">
-        <v>8293.087135954498</v>
+      <c r="C145" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145">
+        <v>14967.85730041158</v>
       </c>
       <c r="E145">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F145">
-        <v>1602</v>
+        <v>4000</v>
       </c>
       <c r="G145">
-        <v>0.06859505176544189</v>
-      </c>
-      <c r="H145" t="s">
-        <v>78</v>
+        <v>12549</v>
+      </c>
+      <c r="H145">
+        <v>0.125190868973732</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3990,20 +3771,20 @@
       <c r="B146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C146">
-        <v>8197.745255545053</v>
-      </c>
-      <c r="E146">
-        <v>5000</v>
+      <c r="C146" t="s">
+        <v>75</v>
+      </c>
+      <c r="D146">
+        <v>17000.17708333334</v>
       </c>
       <c r="F146">
-        <v>1124</v>
+        <v>4000</v>
       </c>
       <c r="G146">
-        <v>0.06351743638515472</v>
-      </c>
-      <c r="H146" t="s">
-        <v>82</v>
+        <v>13750</v>
+      </c>
+      <c r="H146">
+        <v>0.1227096393704414</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4011,20 +3792,23 @@
       <c r="B147" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C147">
-        <v>8190.717523668641</v>
+      <c r="C147" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147">
+        <v>8014.28683029249</v>
       </c>
       <c r="E147">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F147">
-        <v>1776</v>
+        <v>4000</v>
       </c>
       <c r="G147">
-        <v>0.06865127384662628</v>
-      </c>
-      <c r="H147" t="s">
-        <v>78</v>
+        <v>6783</v>
+      </c>
+      <c r="H147">
+        <v>0.1085098683834076</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4032,20 +3816,23 @@
       <c r="B148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C148">
-        <v>8100.084374999995</v>
+      <c r="C148" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148">
+        <v>9744.410137761592</v>
       </c>
       <c r="E148">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G148">
-        <v>0.06817946583032608</v>
-      </c>
-      <c r="H148" t="s">
-        <v>77</v>
+        <v>10884</v>
+      </c>
+      <c r="H148">
+        <v>0.1119994893670082</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4053,20 +3840,23 @@
       <c r="B149" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C149">
-        <v>7800.081250000001</v>
+      <c r="C149" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149">
+        <v>25620.55384292443</v>
       </c>
       <c r="E149">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G149">
-        <v>0.07002706825733185</v>
-      </c>
-      <c r="H149" t="s">
-        <v>80</v>
+        <v>12698</v>
+      </c>
+      <c r="H149">
+        <v>0.1400786489248276</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4074,20 +3864,23 @@
       <c r="B150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C150">
-        <v>8081.677292079367</v>
+      <c r="C150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150">
+        <v>16878.99920903178</v>
       </c>
       <c r="E150">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F150">
-        <v>1697</v>
+        <v>4000</v>
       </c>
       <c r="G150">
-        <v>0.06557901948690414</v>
-      </c>
-      <c r="H150" t="s">
-        <v>75</v>
+        <v>14668</v>
+      </c>
+      <c r="H150">
+        <v>0.1240905225276947</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4095,20 +3888,23 @@
       <c r="B151" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C151">
-        <v>7821.617404300882</v>
+      <c r="C151" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151">
+        <v>11523.055894978</v>
       </c>
       <c r="E151">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F151">
-        <v>1837</v>
+        <v>4000</v>
       </c>
       <c r="G151">
-        <v>0.07085467129945755</v>
-      </c>
-      <c r="H151" t="s">
-        <v>81</v>
+        <v>10954</v>
+      </c>
+      <c r="H151">
+        <v>0.1170730143785477</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4116,20 +3912,23 @@
       <c r="B152" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C152">
-        <v>8404.100353036922</v>
+      <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152">
+        <v>8329.732017170276</v>
       </c>
       <c r="E152">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F152">
-        <v>1632</v>
+        <v>4000</v>
       </c>
       <c r="G152">
-        <v>0.06854239851236343</v>
-      </c>
-      <c r="H152" t="s">
-        <v>78</v>
+        <v>11511</v>
+      </c>
+      <c r="H152">
+        <v>0.1119235977530479</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4137,23 +3936,23 @@
       <c r="B153" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C153">
-        <v>7807.886160852348</v>
+      <c r="C153" t="s">
+        <v>84</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>8898.651745544128</v>
       </c>
       <c r="E153">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="F153">
-        <v>5436</v>
+        <v>4000</v>
       </c>
       <c r="G153">
-        <v>0.06378200650215149</v>
-      </c>
-      <c r="H153" t="s">
-        <v>73</v>
+        <v>10483</v>
+      </c>
+      <c r="H153">
+        <v>0.1214259639382362</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4161,23 +3960,23 @@
       <c r="B154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C154">
-        <v>6896.943531766483</v>
+      <c r="C154" t="s">
+        <v>76</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>9918.044020764137</v>
       </c>
       <c r="E154">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="F154">
-        <v>6794</v>
+        <v>4000</v>
       </c>
       <c r="G154">
-        <v>0.0658465102314949</v>
-      </c>
-      <c r="H154" t="s">
-        <v>76</v>
+        <v>10421</v>
+      </c>
+      <c r="H154">
+        <v>0.1177231818437576</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4185,20 +3984,20 @@
       <c r="B155" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C155">
-        <v>8428.984827983884</v>
-      </c>
-      <c r="E155">
-        <v>5000</v>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155">
+        <v>18760.12171959298</v>
       </c>
       <c r="F155">
-        <v>1536</v>
+        <v>4000</v>
       </c>
       <c r="G155">
-        <v>0.06982709467411041</v>
-      </c>
-      <c r="H155" t="s">
-        <v>73</v>
+        <v>17688</v>
+      </c>
+      <c r="H155">
+        <v>0.1305695921182632</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4206,20 +4005,23 @@
       <c r="B156" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C156">
-        <v>8154.642313176831</v>
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156">
+        <v>10281.55335145478</v>
       </c>
       <c r="E156">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F156">
-        <v>1553</v>
+        <v>3000</v>
       </c>
       <c r="G156">
-        <v>0.06881646066904068</v>
-      </c>
-      <c r="H156" t="s">
-        <v>83</v>
+        <v>18187</v>
+      </c>
+      <c r="H156">
+        <v>0.1029930934309959</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4227,23 +4029,20 @@
       <c r="B157" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C157">
-        <v>6926.834640583825</v>
+      <c r="C157" t="s">
+        <v>83</v>
       </c>
       <c r="D157">
-        <v>3</v>
-      </c>
-      <c r="E157">
-        <v>4000</v>
+        <v>18000.1875</v>
       </c>
       <c r="F157">
-        <v>5523</v>
+        <v>4000</v>
       </c>
       <c r="G157">
-        <v>0.06277373433113098</v>
-      </c>
-      <c r="H157" t="s">
-        <v>80</v>
+        <v>13750</v>
+      </c>
+      <c r="H157">
+        <v>0.1266082674264908</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4251,20 +4050,23 @@
       <c r="B158" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C158">
-        <v>8335.717556616964</v>
+      <c r="C158" t="s">
+        <v>80</v>
+      </c>
+      <c r="D158">
+        <v>19194.05770705855</v>
       </c>
       <c r="E158">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F158">
-        <v>1699</v>
+        <v>4000</v>
       </c>
       <c r="G158">
-        <v>0.0687437430024147</v>
-      </c>
-      <c r="H158" t="s">
-        <v>78</v>
+        <v>13544</v>
+      </c>
+      <c r="H158">
+        <v>0.1316217482089996</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4272,20 +4074,23 @@
       <c r="B159" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C159">
-        <v>8440.93266899453</v>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159">
+        <v>12516.44587019757</v>
       </c>
       <c r="E159">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F159">
-        <v>1672</v>
+        <v>3000</v>
       </c>
       <c r="G159">
-        <v>0.06785226613283157</v>
-      </c>
-      <c r="H159" t="s">
-        <v>75</v>
+        <v>19826</v>
+      </c>
+      <c r="H159">
+        <v>0.108306422829628</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4293,20 +4098,23 @@
       <c r="B160" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C160">
-        <v>7938.123126414634</v>
+      <c r="C160" t="s">
+        <v>80</v>
+      </c>
+      <c r="D160">
+        <v>12039.54752283692</v>
       </c>
       <c r="E160">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F160">
-        <v>1658</v>
+        <v>3000</v>
       </c>
       <c r="G160">
-        <v>0.0708000659942627</v>
-      </c>
-      <c r="H160" t="s">
-        <v>84</v>
+        <v>21003</v>
+      </c>
+      <c r="H160">
+        <v>0.106419138610363</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4314,20 +4122,23 @@
       <c r="B161" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C161">
-        <v>8250.085937499998</v>
+      <c r="C161" t="s">
+        <v>77</v>
+      </c>
+      <c r="D161">
+        <v>15681.11447863931</v>
       </c>
       <c r="E161">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F161">
-        <v>1687</v>
+        <v>4000</v>
       </c>
       <c r="G161">
-        <v>0.06825292110443115</v>
-      </c>
-      <c r="H161" t="s">
-        <v>79</v>
+        <v>13870</v>
+      </c>
+      <c r="H161">
+        <v>0.1267938762903214</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4335,20 +4146,20 @@
       <c r="B162" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C162">
-        <v>8250.838740384592</v>
-      </c>
-      <c r="E162">
-        <v>5000</v>
+      <c r="C162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162">
+        <v>19818.59846016109</v>
       </c>
       <c r="F162">
-        <v>1820</v>
+        <v>4000</v>
       </c>
       <c r="G162">
-        <v>0.06519749760627747</v>
-      </c>
-      <c r="H162" t="s">
-        <v>83</v>
+        <v>14588</v>
+      </c>
+      <c r="H162">
+        <v>0.1316783726215363</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4356,20 +4167,23 @@
       <c r="B163" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C163">
-        <v>8545.151127100897</v>
+      <c r="C163" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163">
+        <v>13929.45119232876</v>
       </c>
       <c r="E163">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="F163">
-        <v>1731</v>
+        <v>4000</v>
       </c>
       <c r="G163">
-        <v>0.06798149645328522</v>
-      </c>
-      <c r="H163" t="s">
-        <v>85</v>
+        <v>13563</v>
+      </c>
+      <c r="H163">
+        <v>0.1213949844241142</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4377,20 +4191,20 @@
       <c r="B164" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C164">
-        <v>7293.944022880977</v>
-      </c>
-      <c r="E164">
-        <v>5000</v>
+      <c r="C164" t="s">
+        <v>85</v>
+      </c>
+      <c r="D164">
+        <v>23093.67825383182</v>
       </c>
       <c r="F164">
-        <v>1382</v>
+        <v>4000</v>
       </c>
       <c r="G164">
-        <v>0.07187464833259583</v>
-      </c>
-      <c r="H164" t="s">
-        <v>86</v>
+        <v>14647</v>
+      </c>
+      <c r="H164">
+        <v>0.1333546489477158</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4398,20 +4212,20 @@
       <c r="B165" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C165">
-        <v>8100.084375000001</v>
-      </c>
-      <c r="E165">
-        <v>5000</v>
+      <c r="C165" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165">
+        <v>13695.37035722906</v>
       </c>
       <c r="F165">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G165">
-        <v>0.07024973630905151</v>
-      </c>
-      <c r="H165" t="s">
-        <v>73</v>
+        <v>14615</v>
+      </c>
+      <c r="H165">
+        <v>0.1232962235808372</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4419,23 +4233,23 @@
       <c r="B166" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C166">
-        <v>8153.060625646064</v>
+      <c r="C166" t="s">
+        <v>77</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>12279.30278602262</v>
       </c>
       <c r="E166">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F166">
-        <v>6859</v>
+        <v>4000</v>
       </c>
       <c r="G166">
-        <v>0.06594405323266983</v>
-      </c>
-      <c r="H166" t="s">
-        <v>73</v>
+        <v>12259</v>
+      </c>
+      <c r="H166">
+        <v>0.1178876683115959</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4443,20 +4257,23 @@
       <c r="B167" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C167">
-        <v>8100.084375000001</v>
+      <c r="C167" t="s">
+        <v>84</v>
+      </c>
+      <c r="D167">
+        <v>10301.90246994109</v>
       </c>
       <c r="E167">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F167">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G167">
-        <v>0.06611892580986023</v>
-      </c>
-      <c r="H167" t="s">
-        <v>86</v>
+        <v>12115</v>
+      </c>
+      <c r="H167">
+        <v>0.1127280667424202</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4464,20 +4281,23 @@
       <c r="B168" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C168">
-        <v>8379.432858780556</v>
+      <c r="C168" t="s">
+        <v>77</v>
+      </c>
+      <c r="D168">
+        <v>17654.48639059853</v>
       </c>
       <c r="E168">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="F168">
-        <v>1629</v>
+        <v>4000</v>
       </c>
       <c r="G168">
-        <v>0.07010377198457718</v>
-      </c>
-      <c r="H168" t="s">
-        <v>73</v>
+        <v>15720</v>
+      </c>
+      <c r="H168">
+        <v>0.1304486840963364</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4485,20 +4305,20 @@
       <c r="B169" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C169">
-        <v>8418.509118407788</v>
-      </c>
-      <c r="E169">
-        <v>5000</v>
+      <c r="C169" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169">
+        <v>14412.28797854569</v>
       </c>
       <c r="F169">
-        <v>1821</v>
+        <v>4000</v>
       </c>
       <c r="G169">
-        <v>0.06807821989059448</v>
-      </c>
-      <c r="H169" t="s">
-        <v>78</v>
+        <v>15626</v>
+      </c>
+      <c r="H169">
+        <v>0.1252869814634323</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4506,20 +4326,23 @@
       <c r="B170" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C170">
-        <v>8246.215762579701</v>
+      <c r="C170" t="s">
+        <v>77</v>
+      </c>
+      <c r="D170">
+        <v>15243.2002588794</v>
       </c>
       <c r="E170">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F170">
-        <v>1819</v>
+        <v>4000</v>
       </c>
       <c r="G170">
-        <v>0.06631328165531158</v>
-      </c>
-      <c r="H170" t="s">
-        <v>75</v>
+        <v>16726</v>
+      </c>
+      <c r="H170">
+        <v>0.1259458512067795</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4527,23 +4350,23 @@
       <c r="B171" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C171">
-        <v>281.8408560883124</v>
+      <c r="C171" t="s">
+        <v>85</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>18962.62445460234</v>
       </c>
       <c r="E171">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F171">
-        <v>1333</v>
+        <v>4000</v>
       </c>
       <c r="G171">
-        <v>0.07029108703136444</v>
-      </c>
-      <c r="H171" t="s">
-        <v>73</v>
+        <v>14551</v>
+      </c>
+      <c r="H171">
+        <v>0.1320659518241882</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4551,20 +4374,23 @@
       <c r="B172" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C172">
-        <v>8400.087499999998</v>
+      <c r="C172" t="s">
+        <v>77</v>
+      </c>
+      <c r="D172">
+        <v>12682.05420567016</v>
       </c>
       <c r="E172">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F172">
-        <v>1875</v>
+        <v>3000</v>
       </c>
       <c r="G172">
-        <v>0.06666853278875351</v>
-      </c>
-      <c r="H172" t="s">
-        <v>79</v>
+        <v>18669</v>
+      </c>
+      <c r="H172">
+        <v>0.1048076525330544</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4572,20 +4398,20 @@
       <c r="B173" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C173">
-        <v>8068.539603853629</v>
-      </c>
-      <c r="E173">
-        <v>5000</v>
+      <c r="C173" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173">
+        <v>16523.68110495668</v>
       </c>
       <c r="F173">
-        <v>1465</v>
+        <v>4000</v>
       </c>
       <c r="G173">
-        <v>0.06820710748434067</v>
-      </c>
-      <c r="H173" t="s">
-        <v>79</v>
+        <v>16339</v>
+      </c>
+      <c r="H173">
+        <v>0.1272660046815872</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4593,20 +4419,23 @@
       <c r="B174" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C174">
-        <v>8306.096411134498</v>
+      <c r="C174" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174">
+        <v>11260.28893456071</v>
       </c>
       <c r="E174">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="F174">
-        <v>1485</v>
+        <v>4000</v>
       </c>
       <c r="G174">
-        <v>0.06609703600406647</v>
-      </c>
-      <c r="H174" t="s">
-        <v>87</v>
+        <v>10309</v>
+      </c>
+      <c r="H174">
+        <v>0.1169715076684952</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4614,20 +4443,20 @@
       <c r="B175" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C175">
-        <v>8133.438039743039</v>
-      </c>
-      <c r="E175">
-        <v>5000</v>
+      <c r="C175" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175">
+        <v>13457.54102115079</v>
       </c>
       <c r="F175">
-        <v>1870</v>
+        <v>4000</v>
       </c>
       <c r="G175">
-        <v>0.07021742314100266</v>
-      </c>
-      <c r="H175" t="s">
-        <v>73</v>
+        <v>12876</v>
+      </c>
+      <c r="H175">
+        <v>0.1170296370983124</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4635,20 +4464,23 @@
       <c r="B176" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C176" t="s">
+        <v>78</v>
+      </c>
       <c r="D176">
+        <v>9474.205722799134</v>
+      </c>
+      <c r="E176">
         <v>4</v>
       </c>
-      <c r="E176">
-        <v>5000</v>
-      </c>
       <c r="F176">
-        <v>1281</v>
+        <v>4000</v>
       </c>
       <c r="G176">
-        <v>0.06653336435556412</v>
-      </c>
-      <c r="H176" t="s">
-        <v>75</v>
+        <v>12962</v>
+      </c>
+      <c r="H176">
+        <v>0.1172465682029724</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4656,20 +4488,23 @@
       <c r="B177" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C177">
-        <v>8100.084374999997</v>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177">
+        <v>16063.00870217263</v>
       </c>
       <c r="E177">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F177">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G177">
-        <v>0.06682422757148743</v>
-      </c>
-      <c r="H177" t="s">
-        <v>79</v>
+        <v>13906</v>
+      </c>
+      <c r="H177">
+        <v>0.1275554001331329</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4677,23 +4512,23 @@
       <c r="B178" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C178">
-        <v>6493.003758254303</v>
+      <c r="C178" t="s">
+        <v>78</v>
       </c>
       <c r="D178">
+        <v>9601.092840129797</v>
+      </c>
+      <c r="E178">
         <v>3</v>
       </c>
-      <c r="E178">
-        <v>4000</v>
-      </c>
       <c r="F178">
-        <v>6877</v>
+        <v>4000</v>
       </c>
       <c r="G178">
-        <v>0.06457527726888657</v>
-      </c>
-      <c r="H178" t="s">
-        <v>79</v>
+        <v>8118</v>
+      </c>
+      <c r="H178">
+        <v>0.1112528815865517</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -4701,23 +4536,20 @@
       <c r="B179" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C179">
-        <v>6089.327753572354</v>
+      <c r="C179" t="s">
+        <v>87</v>
       </c>
       <c r="D179">
-        <v>4</v>
-      </c>
-      <c r="E179">
-        <v>4000</v>
+        <v>14355.55152962661</v>
       </c>
       <c r="F179">
-        <v>4754</v>
+        <v>4000</v>
       </c>
       <c r="G179">
-        <v>0.06387844681739807</v>
-      </c>
-      <c r="H179" t="s">
-        <v>75</v>
+        <v>12459</v>
+      </c>
+      <c r="H179">
+        <v>0.1194702610373497</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -4725,20 +4557,20 @@
       <c r="B180" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C180">
-        <v>8505.707350529472</v>
-      </c>
-      <c r="E180">
-        <v>5000</v>
+      <c r="C180" t="s">
+        <v>77</v>
+      </c>
+      <c r="D180">
+        <v>18697.13946387502</v>
       </c>
       <c r="F180">
-        <v>1680</v>
+        <v>4000</v>
       </c>
       <c r="G180">
-        <v>0.0688294991850853</v>
-      </c>
-      <c r="H180" t="s">
-        <v>78</v>
+        <v>15971</v>
+      </c>
+      <c r="H180">
+        <v>0.1287698894739151</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -4746,20 +4578,20 @@
       <c r="B181" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C181">
-        <v>8400.087499999996</v>
-      </c>
-      <c r="E181">
-        <v>5000</v>
+      <c r="C181" t="s">
+        <v>87</v>
+      </c>
+      <c r="D181">
+        <v>11873.15153064701</v>
       </c>
       <c r="F181">
-        <v>1875</v>
+        <v>4000</v>
       </c>
       <c r="G181">
-        <v>0.06934403628110886</v>
-      </c>
-      <c r="H181" t="s">
-        <v>81</v>
+        <v>13319</v>
+      </c>
+      <c r="H181">
+        <v>0.1178952679038048</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -4767,20 +4599,23 @@
       <c r="B182" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C182">
-        <v>8400.087499999998</v>
+      <c r="C182" t="s">
+        <v>80</v>
+      </c>
+      <c r="D182">
+        <v>8894.422423976959</v>
       </c>
       <c r="E182">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F182">
-        <v>1875</v>
+        <v>4000</v>
       </c>
       <c r="G182">
-        <v>0.06736060976982117</v>
-      </c>
-      <c r="H182" t="s">
-        <v>79</v>
+        <v>10577</v>
+      </c>
+      <c r="H182">
+        <v>0.1107806265354156</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -4788,20 +4623,23 @@
       <c r="B183" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C183">
-        <v>8203.981749257675</v>
+      <c r="C183" t="s">
+        <v>76</v>
+      </c>
+      <c r="D183">
+        <v>19296.17072991285</v>
       </c>
       <c r="E183">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="F183">
-        <v>1798</v>
+        <v>4000</v>
       </c>
       <c r="G183">
-        <v>0.07009553164243698</v>
-      </c>
-      <c r="H183" t="s">
-        <v>75</v>
+        <v>11860</v>
+      </c>
+      <c r="H183">
+        <v>0.1289954632520676</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -4809,20 +4647,23 @@
       <c r="B184" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C184">
-        <v>8426.763084131617</v>
+      <c r="C184" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184">
+        <v>11040.98428497883</v>
       </c>
       <c r="E184">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F184">
-        <v>1414</v>
+        <v>3000</v>
       </c>
       <c r="G184">
-        <v>0.06447815150022507</v>
-      </c>
-      <c r="H184" t="s">
-        <v>74</v>
+        <v>18964</v>
+      </c>
+      <c r="H184">
+        <v>0.1030237451195717</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -4830,20 +4671,23 @@
       <c r="B185" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C185">
-        <v>8398.530413512126</v>
+      <c r="C185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D185">
+        <v>11744.92942468356</v>
       </c>
       <c r="E185">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F185">
-        <v>1635</v>
+        <v>4000</v>
       </c>
       <c r="G185">
-        <v>0.06856943666934967</v>
-      </c>
-      <c r="H185" t="s">
-        <v>78</v>
+        <v>11227</v>
+      </c>
+      <c r="H185">
+        <v>0.1159335151314735</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -4851,20 +4695,23 @@
       <c r="B186" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C186">
-        <v>8068.539603853629</v>
+      <c r="C186" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186">
+        <v>10393.83402067058</v>
       </c>
       <c r="E186">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>1465</v>
+        <v>4000</v>
       </c>
       <c r="G186">
-        <v>0.06936633586883545</v>
-      </c>
-      <c r="H186" t="s">
-        <v>75</v>
+        <v>10540</v>
+      </c>
+      <c r="H186">
+        <v>0.114983081817627</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -4872,27 +4719,1488 @@
       <c r="B187" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C187">
-        <v>7388.403933037322</v>
+      <c r="C187" t="s">
+        <v>80</v>
+      </c>
+      <c r="D187">
+        <v>7315.785374334758</v>
       </c>
       <c r="E187">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F187">
-        <v>1094</v>
+        <v>4000</v>
       </c>
       <c r="G187">
-        <v>0.07198363542556763</v>
-      </c>
-      <c r="H187" t="s">
+        <v>5953</v>
+      </c>
+      <c r="H187">
+        <v>0.1068217307329178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188">
+        <v>18736.81632884605</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>3000</v>
+      </c>
+      <c r="G188">
+        <v>34227</v>
+      </c>
+      <c r="H188">
+        <v>0.1593139916658401</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>75</v>
+      </c>
+      <c r="D189">
+        <v>21000.21875</v>
+      </c>
+      <c r="F189">
+        <v>4000</v>
+      </c>
+      <c r="G189">
+        <v>27500</v>
+      </c>
+      <c r="H189">
+        <v>0.2015632688999176</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190">
+        <v>28906.24602764038</v>
+      </c>
+      <c r="E190">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>3000</v>
+      </c>
+      <c r="G190">
+        <v>29073</v>
+      </c>
+      <c r="H190">
+        <v>0.1718409508466721</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>77</v>
+      </c>
+      <c r="D191">
+        <v>15216.06361784767</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>4000</v>
+      </c>
+      <c r="G191">
+        <v>26305</v>
+      </c>
+      <c r="H191">
+        <v>0.1894929707050323</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192">
+        <v>13998.01189483575</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <v>4000</v>
+      </c>
+      <c r="G192">
+        <v>27146</v>
+      </c>
+      <c r="H192">
+        <v>0.1933920681476593</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>78</v>
+      </c>
+      <c r="D193">
+        <v>24292.99438500274</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>3000</v>
+      </c>
+      <c r="G193">
+        <v>38311</v>
+      </c>
+      <c r="H193">
+        <v>0.1705761104822159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194">
+        <v>17500.18229166668</v>
+      </c>
+      <c r="F194">
+        <v>4000</v>
+      </c>
+      <c r="G194">
+        <v>21667</v>
+      </c>
+      <c r="H194">
+        <v>0.191017210483551</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195">
+        <v>16745.19439714533</v>
+      </c>
+      <c r="F195">
+        <v>4000</v>
+      </c>
+      <c r="G195">
+        <v>26574</v>
+      </c>
+      <c r="H195">
+        <v>0.1907617151737213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196">
+        <v>10149.36808379716</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>3000</v>
+      </c>
+      <c r="G196">
+        <v>28986</v>
+      </c>
+      <c r="H196">
+        <v>0.1382465958595276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>78</v>
+      </c>
+      <c r="D197">
+        <v>12482.07449892143</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>3000</v>
+      </c>
+      <c r="G197">
+        <v>31125</v>
+      </c>
+      <c r="H197">
+        <v>0.1408252567052841</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D198">
+        <v>24841.86365961212</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>3000</v>
+      </c>
+      <c r="G198">
+        <v>34932</v>
+      </c>
+      <c r="H198">
+        <v>0.1728316098451614</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199">
+        <v>14964.67972869397</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199">
+        <v>3000</v>
+      </c>
+      <c r="G199">
+        <v>28325</v>
+      </c>
+      <c r="H199">
+        <v>0.1392261385917664</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" t="s">
+        <v>80</v>
+      </c>
+      <c r="D200">
+        <v>16840.27257873966</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+      <c r="F200">
+        <v>4000</v>
+      </c>
+      <c r="G200">
+        <v>25145</v>
+      </c>
+      <c r="H200">
+        <v>0.1950912177562714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D201">
+        <v>25934.88838353402</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>3000</v>
+      </c>
+      <c r="G201">
+        <v>31378</v>
+      </c>
+      <c r="H201">
+        <v>0.1698428392410278</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202">
+        <v>34640.85553581916</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>3000</v>
+      </c>
+      <c r="G202">
+        <v>38115</v>
+      </c>
+      <c r="H202">
+        <v>0.1852158606052399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D203">
+        <v>13843.1952791494</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203">
+        <v>3000</v>
+      </c>
+      <c r="G203">
+        <v>30562</v>
+      </c>
+      <c r="H203">
+        <v>0.1369706690311432</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" t="s">
+        <v>80</v>
+      </c>
+      <c r="D204">
+        <v>24535.82522851022</v>
+      </c>
+      <c r="E204">
+        <v>6</v>
+      </c>
+      <c r="F204">
+        <v>3000</v>
+      </c>
+      <c r="G204">
+        <v>27170</v>
+      </c>
+      <c r="H204">
+        <v>0.1543158739805222</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>76</v>
+      </c>
+      <c r="D205">
+        <v>25898.7929230592</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>3000</v>
+      </c>
+      <c r="G205">
+        <v>34355</v>
+      </c>
+      <c r="H205">
+        <v>0.1729087680578232</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" t="s">
+        <v>77</v>
+      </c>
+      <c r="D206">
+        <v>24719.68687901867</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+      <c r="F206">
+        <v>3000</v>
+      </c>
+      <c r="G206">
+        <v>35896</v>
+      </c>
+      <c r="H206">
+        <v>0.1690924912691116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207">
+        <v>12014.15026427569</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>4000</v>
+      </c>
+      <c r="G207">
+        <v>22311</v>
+      </c>
+      <c r="H207">
+        <v>0.1811836361885071</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" t="s">
+        <v>75</v>
+      </c>
+      <c r="D208">
+        <v>24965.08209000587</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208">
+        <v>3000</v>
+      </c>
+      <c r="G208">
+        <v>46222</v>
+      </c>
+      <c r="H208">
+        <v>0.1726787686347961</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" t="s">
+        <v>80</v>
+      </c>
+      <c r="D209">
+        <v>11752.82337965216</v>
+      </c>
+      <c r="E209">
+        <v>7</v>
+      </c>
+      <c r="F209">
+        <v>3000</v>
+      </c>
+      <c r="G209">
+        <v>29383</v>
+      </c>
+      <c r="H209">
+        <v>0.142909973859787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210">
+        <v>19932.03334686616</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <v>3000</v>
+      </c>
+      <c r="G210">
+        <v>34071</v>
+      </c>
+      <c r="H210">
+        <v>0.1554485410451889</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C211" t="s">
+        <v>75</v>
+      </c>
+      <c r="D211">
+        <v>18862.91428965364</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211">
+        <v>4000</v>
+      </c>
+      <c r="G211">
+        <v>25458</v>
+      </c>
+      <c r="H211">
+        <v>0.2023488432168961</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" t="s">
+        <v>82</v>
+      </c>
+      <c r="D212">
+        <v>11943.48131084826</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212">
+        <v>4000</v>
+      </c>
+      <c r="G212">
+        <v>23267</v>
+      </c>
+      <c r="H212">
+        <v>0.1742358952760696</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" t="s">
+        <v>83</v>
+      </c>
+      <c r="D213">
+        <v>22167.30201139807</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>3000</v>
+      </c>
+      <c r="G213">
+        <v>35974</v>
+      </c>
+      <c r="H213">
+        <v>0.1616940349340439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" t="s">
+        <v>78</v>
+      </c>
+      <c r="D214">
+        <v>19614.84955182837</v>
+      </c>
+      <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>3000</v>
+      </c>
+      <c r="G214">
+        <v>32136</v>
+      </c>
+      <c r="H214">
+        <v>0.1516307592391968</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" t="s">
+        <v>84</v>
+      </c>
+      <c r="D215">
+        <v>24335.84073607431</v>
+      </c>
+      <c r="E215">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>3000</v>
+      </c>
+      <c r="G215">
+        <v>30959</v>
+      </c>
+      <c r="H215">
+        <v>0.1677524596452713</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C216" t="s">
+        <v>76</v>
+      </c>
+      <c r="D216">
+        <v>17678.93389725996</v>
+      </c>
+      <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="F216">
+        <v>3000</v>
+      </c>
+      <c r="G216">
+        <v>31468</v>
+      </c>
+      <c r="H216">
+        <v>0.1621213406324387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C217" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217">
+        <v>16688.51791301546</v>
+      </c>
+      <c r="F217">
+        <v>4000</v>
+      </c>
+      <c r="G217">
+        <v>25384</v>
+      </c>
+      <c r="H217">
+        <v>0.1898485869169235</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" t="s">
+        <v>85</v>
+      </c>
+      <c r="D218">
+        <v>17116.29660509124</v>
+      </c>
+      <c r="E218">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>2000</v>
+      </c>
+      <c r="G218">
+        <v>34202</v>
+      </c>
+      <c r="H218">
+        <v>0.1349201947450638</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D219">
+        <v>15285.46006236379</v>
+      </c>
+      <c r="F219">
+        <v>4000</v>
+      </c>
+      <c r="G219">
+        <v>24943</v>
+      </c>
+      <c r="H219">
+        <v>0.1904352754354477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C220" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220">
+        <v>14509.59499265923</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220">
+        <v>4000</v>
+      </c>
+      <c r="G220">
+        <v>25658</v>
+      </c>
+      <c r="H220">
+        <v>0.1896335035562515</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" t="s">
         <v>86</v>
       </c>
+      <c r="D221">
+        <v>11312.19797683035</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>3000</v>
+      </c>
+      <c r="G221">
+        <v>27839</v>
+      </c>
+      <c r="H221">
+        <v>0.1436746567487717</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222">
+        <v>11227.21045278261</v>
+      </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
+      <c r="F222">
+        <v>3000</v>
+      </c>
+      <c r="G222">
+        <v>28886</v>
+      </c>
+      <c r="H222">
+        <v>0.1391603648662567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" t="s">
+        <v>77</v>
+      </c>
+      <c r="D223">
+        <v>33129.08419686449</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+      <c r="F223">
+        <v>3000</v>
+      </c>
+      <c r="G223">
+        <v>34599</v>
+      </c>
+      <c r="H223">
+        <v>0.1808706969022751</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224">
+        <v>16096.84417432221</v>
+      </c>
+      <c r="F224">
+        <v>4000</v>
+      </c>
+      <c r="G224">
+        <v>26774</v>
+      </c>
+      <c r="H224">
+        <v>0.1969351172447205</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" t="s">
+        <v>76</v>
+      </c>
+      <c r="D225">
+        <v>25175.41367806965</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225">
+        <v>3000</v>
+      </c>
+      <c r="G225">
+        <v>37143</v>
+      </c>
+      <c r="H225">
+        <v>0.1680303364992142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C226" t="s">
+        <v>85</v>
+      </c>
+      <c r="D226">
+        <v>17744.323571088</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>4000</v>
+      </c>
+      <c r="G226">
+        <v>25917</v>
+      </c>
+      <c r="H226">
+        <v>0.1949165016412735</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227" t="s">
+        <v>87</v>
+      </c>
+      <c r="D227">
+        <v>15479.40408955009</v>
+      </c>
+      <c r="F227">
+        <v>4000</v>
+      </c>
+      <c r="G227">
+        <v>19414</v>
+      </c>
+      <c r="H227">
+        <v>0.1863949000835419</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C228" t="s">
+        <v>77</v>
+      </c>
+      <c r="D228">
+        <v>26806.23464053732</v>
+      </c>
+      <c r="E228">
+        <v>7</v>
+      </c>
+      <c r="F228">
+        <v>3000</v>
+      </c>
+      <c r="G228">
+        <v>28275</v>
+      </c>
+      <c r="H228">
+        <v>0.1644172966480255</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C229" t="s">
+        <v>84</v>
+      </c>
+      <c r="D229">
+        <v>34263.01571910757</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
+      <c r="G229">
+        <v>78143</v>
+      </c>
+      <c r="H229">
+        <v>0.1387719810009003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" t="s">
+        <v>77</v>
+      </c>
+      <c r="D230">
+        <v>14869.87614513888</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>4000</v>
+      </c>
+      <c r="G230">
+        <v>24828</v>
+      </c>
+      <c r="H230">
+        <v>0.1883957386016846</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" t="s">
+        <v>79</v>
+      </c>
+      <c r="D231">
+        <v>37198.85735168993</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>3000</v>
+      </c>
+      <c r="G231">
+        <v>33547</v>
+      </c>
+      <c r="H231">
+        <v>0.1881511062383652</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C232" t="s">
+        <v>77</v>
+      </c>
+      <c r="D232">
+        <v>12342.59653514524</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232">
+        <v>4000</v>
+      </c>
+      <c r="G232">
+        <v>22951</v>
+      </c>
+      <c r="H232">
+        <v>0.1759851574897766</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>85</v>
+      </c>
+      <c r="D233">
+        <v>11956.96980259507</v>
+      </c>
+      <c r="E233">
+        <v>7</v>
+      </c>
+      <c r="F233">
+        <v>4000</v>
+      </c>
+      <c r="G233">
+        <v>22738</v>
+      </c>
+      <c r="H233">
+        <v>0.1877965480089188</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C234" t="s">
+        <v>77</v>
+      </c>
+      <c r="D234">
+        <v>11069.56425234147</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234">
+        <v>3000</v>
+      </c>
+      <c r="G234">
+        <v>27959</v>
+      </c>
+      <c r="H234">
+        <v>0.1388981491327286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C235" t="s">
+        <v>77</v>
+      </c>
+      <c r="D235">
+        <v>16180.4366507723</v>
+      </c>
+      <c r="F235">
+        <v>4000</v>
+      </c>
+      <c r="G235">
+        <v>24488</v>
+      </c>
+      <c r="H235">
+        <v>0.1885772049427032</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C236" t="s">
+        <v>88</v>
+      </c>
+      <c r="D236">
+        <v>21249.59522275551</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>3000</v>
+      </c>
+      <c r="G236">
+        <v>31865</v>
+      </c>
+      <c r="H236">
+        <v>0.1609594523906708</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C237" t="s">
+        <v>87</v>
+      </c>
+      <c r="D237">
+        <v>15703.61154839397</v>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+      <c r="F237">
+        <v>3000</v>
+      </c>
+      <c r="G237">
+        <v>32195</v>
+      </c>
+      <c r="H237">
+        <v>0.1577858775854111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C238" t="s">
+        <v>78</v>
+      </c>
+      <c r="D238">
+        <v>18031.15728826307</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
+        <v>3000</v>
+      </c>
+      <c r="G238">
+        <v>41183</v>
+      </c>
+      <c r="H238">
+        <v>0.1585929989814758</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C239" t="s">
+        <v>77</v>
+      </c>
+      <c r="D239">
+        <v>34460.64967520684</v>
+      </c>
+      <c r="E239">
+        <v>6</v>
+      </c>
+      <c r="F239">
+        <v>3000</v>
+      </c>
+      <c r="G239">
+        <v>38742</v>
+      </c>
+      <c r="H239">
+        <v>0.1843449920415878</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C240" t="s">
+        <v>78</v>
+      </c>
+      <c r="D240">
+        <v>12856.52843009839</v>
+      </c>
+      <c r="E240">
+        <v>7</v>
+      </c>
+      <c r="F240">
+        <v>3000</v>
+      </c>
+      <c r="G240">
+        <v>30107</v>
+      </c>
+      <c r="H240">
+        <v>0.1468953788280487</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C241" t="s">
+        <v>87</v>
+      </c>
+      <c r="D241">
+        <v>14139.6835262699</v>
+      </c>
+      <c r="F241">
+        <v>4000</v>
+      </c>
+      <c r="G241">
+        <v>18998</v>
+      </c>
+      <c r="H241">
+        <v>0.1813366711139679</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" t="s">
+        <v>77</v>
+      </c>
+      <c r="D242">
+        <v>16770.38776105265</v>
+      </c>
+      <c r="F242">
+        <v>4000</v>
+      </c>
+      <c r="G242">
+        <v>24317</v>
+      </c>
+      <c r="H242">
+        <v>0.189670592546463</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C243" t="s">
+        <v>87</v>
+      </c>
+      <c r="D243">
+        <v>17891.18928690607</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>3000</v>
+      </c>
+      <c r="G243">
+        <v>33142</v>
+      </c>
+      <c r="H243">
+        <v>0.1648482978343964</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C244" t="s">
+        <v>80</v>
+      </c>
+      <c r="D244">
+        <v>15194.08458441624</v>
+      </c>
+      <c r="E244">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>3000</v>
+      </c>
+      <c r="G244">
+        <v>36630</v>
+      </c>
+      <c r="H244">
+        <v>0.1524860411882401</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C245" t="s">
+        <v>76</v>
+      </c>
+      <c r="D245">
+        <v>33010.74256618076</v>
+      </c>
+      <c r="E245">
+        <v>6</v>
+      </c>
+      <c r="F245">
+        <v>3000</v>
+      </c>
+      <c r="G245">
+        <v>32103</v>
+      </c>
+      <c r="H245">
+        <v>0.1794235408306122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C246" t="s">
+        <v>86</v>
+      </c>
+      <c r="D246">
+        <v>14815.15263309991</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246">
+        <v>2000</v>
+      </c>
+      <c r="G246">
+        <v>35220</v>
+      </c>
+      <c r="H246">
+        <v>0.131989598274231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C247" t="s">
+        <v>76</v>
+      </c>
+      <c r="D247">
+        <v>17200.15706878671</v>
+      </c>
+      <c r="E247">
+        <v>9</v>
+      </c>
+      <c r="F247">
+        <v>3000</v>
+      </c>
+      <c r="G247">
+        <v>37649</v>
+      </c>
+      <c r="H247">
+        <v>0.1625120937824249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C248" t="s">
+        <v>88</v>
+      </c>
+      <c r="D248">
+        <v>19857.02538286048</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>2000</v>
+      </c>
+      <c r="G248">
+        <v>43517</v>
+      </c>
+      <c r="H248">
+        <v>0.1550425291061401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C249" t="s">
+        <v>80</v>
+      </c>
+      <c r="D249">
+        <v>10727.02953987664</v>
+      </c>
+      <c r="E249">
+        <v>7</v>
+      </c>
+      <c r="F249">
+        <v>3000</v>
+      </c>
+      <c r="G249">
+        <v>25372</v>
+      </c>
+      <c r="H249">
+        <v>0.1386382579803467</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A63"/>
     <mergeCell ref="A64:A125"/>
     <mergeCell ref="A126:A187"/>
+    <mergeCell ref="A188:A249"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
+++ b/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
@@ -124,7 +124,7 @@
     <t>EielsonAFB</t>
   </si>
   <si>
-    <t>Everglade</t>
+    <t>Everglades</t>
   </si>
   <si>
     <t>Flagstaff</t>
@@ -133,7 +133,7 @@
     <t>GreatFallsMT</t>
   </si>
   <si>
-    <t>Hil</t>
+    <t>Hilo</t>
   </si>
   <si>
     <t>IdahoFalls</t>
@@ -175,7 +175,7 @@
     <t>MemphisTN</t>
   </si>
   <si>
-    <t>Miam</t>
+    <t>Miami</t>
   </si>
   <si>
     <t>MobileAL</t>

--- a/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
+++ b/ClimateStudies/OutputProcessing/LocationalVarianceTrimmed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="92">
   <si>
     <t>KCC</t>
   </si>
@@ -37,6 +37,9 @@
 ($)</t>
   </si>
   <si>
+    <t>GenMin</t>
+  </si>
+  <si>
     <t>CaseNum</t>
   </si>
   <si>
@@ -284,6 +287,12 @@
   </si>
   <si>
     <t>bwh</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -641,18 +650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -672,16 +681,19 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>62704.40645764015</v>
@@ -695,14 +707,17 @@
       <c r="H2">
         <v>0.4393435716629028</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>40033.75092534612</v>
@@ -716,14 +731,17 @@
       <c r="H3">
         <v>0.2077768743038177</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>93091.97141745969</v>
@@ -737,14 +755,17 @@
       <c r="H4">
         <v>0.2525692880153656</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>61149.25152375863</v>
@@ -758,14 +779,17 @@
       <c r="H5">
         <v>0.3024282157421112</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>36672.91337546184</v>
@@ -779,14 +803,17 @@
       <c r="H6">
         <v>0.2336928993463516</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>54987.67619963867</v>
@@ -800,14 +827,17 @@
       <c r="H7">
         <v>0.2768734693527222</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>82734.96104951685</v>
@@ -821,14 +851,17 @@
       <c r="H8">
         <v>0.2711388766765594</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>19983.40932678873</v>
@@ -842,14 +875,17 @@
       <c r="H9">
         <v>0.1559025198221207</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>17623.83136581631</v>
@@ -863,14 +899,17 @@
       <c r="H10">
         <v>0.1630143821239471</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>71824.58208802422</v>
@@ -884,14 +923,17 @@
       <c r="H11">
         <v>0.2455868870019913</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>34446.10060876461</v>
@@ -905,14 +947,17 @@
       <c r="H12">
         <v>0.1582337021827698</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>65253.8228777096</v>
@@ -926,14 +971,17 @@
       <c r="H13">
         <v>0.3234260976314545</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>58568.59530086227</v>
@@ -947,14 +995,17 @@
       <c r="H14">
         <v>0.2949548661708832</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>76800.8</v>
@@ -968,14 +1019,17 @@
       <c r="H15">
         <v>0.2978404760360718</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>29093.464460392</v>
@@ -989,14 +1043,17 @@
       <c r="H16">
         <v>0.1375516802072525</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>45713.73168124742</v>
@@ -1010,14 +1067,17 @@
       <c r="H17">
         <v>0.1846518069505692</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>64242.29255147324</v>
@@ -1031,14 +1091,17 @@
       <c r="H18">
         <v>0.2520990669727325</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>56910.08842799045</v>
@@ -1052,14 +1115,17 @@
       <c r="H19">
         <v>0.2107397764921188</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>77376.69364997144</v>
@@ -1073,14 +1139,17 @@
       <c r="H20">
         <v>0.2391571700572968</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>82810.67242000293</v>
@@ -1094,14 +1163,17 @@
       <c r="H21">
         <v>0.2289169132709503</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>20739.22015903339</v>
@@ -1115,14 +1187,17 @@
       <c r="H22">
         <v>0.1619855016469955</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>37186.81439023861</v>
@@ -1136,14 +1211,17 @@
       <c r="H23">
         <v>0.1763457953929901</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>51342.30778274829</v>
@@ -1157,14 +1235,17 @@
       <c r="H24">
         <v>0.400917649269104</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>59807.12581497078</v>
@@ -1178,14 +1259,17 @@
       <c r="H25">
         <v>0.2217249274253845</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>65451.99828154887</v>
@@ -1199,14 +1283,17 @@
       <c r="H26">
         <v>0.2067031562328339</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>30239.9265334464</v>
@@ -1220,14 +1307,17 @@
       <c r="H27">
         <v>0.1689421981573105</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>49002.20022958081</v>
@@ -1241,14 +1331,17 @@
       <c r="H28">
         <v>0.2054772228002548</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>34295.94277866919</v>
@@ -1262,14 +1355,17 @@
       <c r="H29">
         <v>0.2240752577781677</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>76800.8</v>
@@ -1283,14 +1379,17 @@
       <c r="H30">
         <v>0.2635131180286407</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31">
         <v>30772.83656027554</v>
@@ -1304,14 +1403,17 @@
       <c r="H31">
         <v>0.1510546058416367</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>95058.54383911284</v>
@@ -1325,14 +1427,17 @@
       <c r="H32">
         <v>0.3371167480945587</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>85976.2378101254</v>
@@ -1346,14 +1451,17 @@
       <c r="H33">
         <v>0.2755715548992157</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>46638.71405846393</v>
@@ -1367,14 +1475,17 @@
       <c r="H34">
         <v>0.1748713552951813</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>19715.81878080609</v>
@@ -1388,14 +1499,17 @@
       <c r="H35">
         <v>0.1567805707454681</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>69619.03856612917</v>
@@ -1409,14 +1523,17 @@
       <c r="H36">
         <v>0.2435668557882309</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>49625.54817108983</v>
@@ -1430,14 +1547,17 @@
       <c r="H37">
         <v>0.3567447066307068</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>73051.04693399229</v>
@@ -1451,14 +1571,17 @@
       <c r="H38">
         <v>0.2022130936384201</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>88191.10606280006</v>
@@ -1472,14 +1595,17 @@
       <c r="H39">
         <v>0.2534724473953247</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>102083.4385670787</v>
@@ -1493,14 +1619,17 @@
       <c r="H40">
         <v>0.3610029816627502</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>48792.09138342729</v>
@@ -1514,14 +1643,17 @@
       <c r="H41">
         <v>0.1967675387859344</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42">
         <v>34263.01571910757</v>
@@ -1535,14 +1667,17 @@
       <c r="H42">
         <v>0.1387719810009003</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>82171.77235629928</v>
@@ -1556,14 +1691,17 @@
       <c r="H43">
         <v>0.256877988576889</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44">
         <v>58896.64732388854</v>
@@ -1577,14 +1715,17 @@
       <c r="H44">
         <v>0.2593738734722137</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>60109.02464192615</v>
@@ -1598,14 +1739,17 @@
       <c r="H45">
         <v>0.2260055243968964</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>83079.7353535814</v>
@@ -1619,14 +1763,17 @@
       <c r="H46">
         <v>0.2377744317054749</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47">
         <v>18231.30069574749</v>
@@ -1640,14 +1787,17 @@
       <c r="H47">
         <v>0.1577692478895187</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>81510.76305106858</v>
@@ -1661,14 +1811,17 @@
       <c r="H48">
         <v>0.2981322407722473</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <v>52813.44069541679</v>
@@ -1682,14 +1835,17 @@
       <c r="H49">
         <v>0.1717848777770996</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>51138.49834845062</v>
@@ -1703,14 +1859,17 @@
       <c r="H50">
         <v>0.1897651553153992</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>45323.47842576701</v>
@@ -1724,14 +1883,17 @@
       <c r="H51">
         <v>0.1861624866724014</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <v>84449.32107186849</v>
@@ -1745,14 +1907,17 @@
       <c r="H52">
         <v>0.2452609241008759</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D53">
         <v>43225.70613410767</v>
@@ -1766,14 +1931,17 @@
       <c r="H53">
         <v>0.1737749129533768</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>84572.3944914337</v>
@@ -1787,14 +1955,17 @@
       <c r="H54">
         <v>0.2843465507030487</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>71007.14943685113</v>
@@ -1808,14 +1979,17 @@
       <c r="H55">
         <v>0.274076521396637</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56">
         <v>64916.4184930542</v>
@@ -1829,14 +2003,17 @@
       <c r="H56">
         <v>0.2479335814714432</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D57">
         <v>41710.00267195462</v>
@@ -1850,14 +2027,17 @@
       <c r="H57">
         <v>0.1708641052246094</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>79312.43677777941</v>
@@ -1871,14 +2051,17 @@
       <c r="H58">
         <v>0.22161965072155</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59">
         <v>27987.64632517543</v>
@@ -1892,14 +2075,17 @@
       <c r="H59">
         <v>0.134756475687027</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60">
         <v>44257.38193595571</v>
@@ -1913,14 +2099,17 @@
       <c r="H60">
         <v>0.1851491928100586</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D61">
         <v>40352.22818032068</v>
@@ -1934,14 +2123,17 @@
       <c r="H61">
         <v>0.17011559009552</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <v>23330.24643233652</v>
@@ -1955,14 +2147,17 @@
       <c r="H62">
         <v>0.1544122099876404</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <v>43612.82696614355</v>
@@ -1976,16 +2171,19 @@
       <c r="H63">
         <v>0.1632217317819595</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>8426.763084131617</v>
@@ -1999,14 +2197,17 @@
       <c r="H64">
         <v>0.06447815150022507</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>7388.403933037322</v>
@@ -2020,14 +2221,17 @@
       <c r="H65">
         <v>0.07198363542556763</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66">
         <v>8068.539603853629</v>
@@ -2041,14 +2245,17 @@
       <c r="H66">
         <v>0.06936633586883545</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67">
         <v>8398.530413512126</v>
@@ -2062,14 +2269,17 @@
       <c r="H67">
         <v>0.06856943666934967</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>8203.981749257675</v>
@@ -2083,14 +2293,17 @@
       <c r="H68">
         <v>0.07009553164243698</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69">
         <v>8400.087499999998</v>
@@ -2104,14 +2317,17 @@
       <c r="H69">
         <v>0.06736060976982117</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>8400.087499999996</v>
@@ -2125,14 +2341,17 @@
       <c r="H70">
         <v>0.06934403628110886</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71">
         <v>8505.707350529472</v>
@@ -2146,14 +2365,17 @@
       <c r="H71">
         <v>0.0688294991850853</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72">
         <v>6089.327753572354</v>
@@ -2170,14 +2392,17 @@
       <c r="H72">
         <v>0.06387844681739807</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D73">
         <v>6493.003758254303</v>
@@ -2194,14 +2419,17 @@
       <c r="H73">
         <v>0.06457527726888657</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74">
         <v>8100.084374999997</v>
@@ -2215,14 +2443,17 @@
       <c r="H74">
         <v>0.06682422757148743</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -2236,14 +2467,17 @@
       <c r="H75">
         <v>0.06653336435556412</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <v>8133.438039743039</v>
@@ -2257,14 +2491,17 @@
       <c r="H76">
         <v>0.07021742314100266</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77">
         <v>8306.096411134498</v>
@@ -2278,14 +2515,17 @@
       <c r="H77">
         <v>0.06609703600406647</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D78">
         <v>8068.539603853629</v>
@@ -2299,14 +2539,17 @@
       <c r="H78">
         <v>0.06820710748434067</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D79">
         <v>8400.087499999998</v>
@@ -2320,14 +2563,17 @@
       <c r="H79">
         <v>0.06666853278875351</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D80">
         <v>281.8408560883124</v>
@@ -2344,14 +2590,17 @@
       <c r="H80">
         <v>0.07029108703136444</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D81">
         <v>8246.215762579701</v>
@@ -2365,14 +2614,17 @@
       <c r="H81">
         <v>0.06631328165531158</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D82">
         <v>8418.509118407788</v>
@@ -2386,14 +2638,17 @@
       <c r="H82">
         <v>0.06807821989059448</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D83">
         <v>8379.432858780556</v>
@@ -2407,14 +2662,17 @@
       <c r="H83">
         <v>0.07010377198457718</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D84">
         <v>8100.084375000001</v>
@@ -2428,14 +2686,17 @@
       <c r="H84">
         <v>0.06611892580986023</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D85">
         <v>8153.060625646064</v>
@@ -2452,14 +2713,17 @@
       <c r="H85">
         <v>0.06594405323266983</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D86">
         <v>8100.084375000001</v>
@@ -2473,14 +2737,17 @@
       <c r="H86">
         <v>0.07024973630905151</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D87">
         <v>7293.944022880977</v>
@@ -2494,14 +2761,17 @@
       <c r="H87">
         <v>0.07187464833259583</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88">
         <v>8545.151127100897</v>
@@ -2515,14 +2785,17 @@
       <c r="H88">
         <v>0.06798149645328522</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D89">
         <v>8250.838740384592</v>
@@ -2536,14 +2809,17 @@
       <c r="H89">
         <v>0.06519749760627747</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D90">
         <v>8250.085937499998</v>
@@ -2557,14 +2833,17 @@
       <c r="H90">
         <v>0.06825292110443115</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D91">
         <v>7938.123126414634</v>
@@ -2578,14 +2857,17 @@
       <c r="H91">
         <v>0.0708000659942627</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D92">
         <v>8440.93266899453</v>
@@ -2599,14 +2881,17 @@
       <c r="H92">
         <v>0.06785226613283157</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D93">
         <v>8335.717556616964</v>
@@ -2620,14 +2905,17 @@
       <c r="H93">
         <v>0.0687437430024147</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <v>6926.834640583825</v>
@@ -2644,14 +2932,17 @@
       <c r="H94">
         <v>0.06277373433113098</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D95">
         <v>8154.642313176831</v>
@@ -2665,14 +2956,17 @@
       <c r="H95">
         <v>0.06881646066904068</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D96">
         <v>8428.984827983884</v>
@@ -2686,14 +2980,17 @@
       <c r="H96">
         <v>0.06982709467411041</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D97">
         <v>6896.943531766483</v>
@@ -2710,14 +3007,17 @@
       <c r="H97">
         <v>0.0658465102314949</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98">
         <v>7807.886160852348</v>
@@ -2734,14 +3034,17 @@
       <c r="H98">
         <v>0.06378200650215149</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D99">
         <v>8404.100353036922</v>
@@ -2755,14 +3058,17 @@
       <c r="H99">
         <v>0.06854239851236343</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D100">
         <v>7821.617404300882</v>
@@ -2776,14 +3082,17 @@
       <c r="H100">
         <v>0.07085467129945755</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D101">
         <v>8081.677292079367</v>
@@ -2797,14 +3106,17 @@
       <c r="H101">
         <v>0.06557901948690414</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D102">
         <v>7800.081250000001</v>
@@ -2818,14 +3130,17 @@
       <c r="H102">
         <v>0.07002706825733185</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D103">
         <v>8100.084374999995</v>
@@ -2839,14 +3154,17 @@
       <c r="H103">
         <v>0.06817946583032608</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D104">
         <v>8190.717523668641</v>
@@ -2860,14 +3178,17 @@
       <c r="H104">
         <v>0.06865127384662628</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D105">
         <v>8197.745255545053</v>
@@ -2881,14 +3202,17 @@
       <c r="H105">
         <v>0.06351743638515472</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D106">
         <v>8293.087135954498</v>
@@ -2902,14 +3226,17 @@
       <c r="H106">
         <v>0.06859505176544189</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D107">
         <v>8104.445837257795</v>
@@ -2923,14 +3250,17 @@
       <c r="H107">
         <v>0.06867457181215286</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D108">
         <v>8549.012896478675</v>
@@ -2944,14 +3274,17 @@
       <c r="H108">
         <v>0.06904519349336624</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D109">
         <v>7121.713968693998</v>
@@ -2965,14 +3298,17 @@
       <c r="H109">
         <v>0.0721503421664238</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D110">
         <v>7683.85779525855</v>
@@ -2989,14 +3325,17 @@
       <c r="H110">
         <v>0.06365588307380676</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D111">
         <v>8345.592479100058</v>
@@ -3010,14 +3349,17 @@
       <c r="H111">
         <v>0.06852811574935913</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D112">
         <v>8250.085937499998</v>
@@ -3031,14 +3373,17 @@
       <c r="H112">
         <v>0.06459803879261017</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D113">
         <v>8100.084374999997</v>
@@ -3052,14 +3397,17 @@
       <c r="H113">
         <v>0.06440728157758713</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D114">
         <v>8301.908538134749</v>
@@ -3073,14 +3421,17 @@
       <c r="H114">
         <v>0.06590689718723297</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D115">
         <v>8290.059378663685</v>
@@ -3094,14 +3445,17 @@
       <c r="H115">
         <v>0.06789936870336533</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D116">
         <v>8250.085937499998</v>
@@ -3115,14 +3469,17 @@
       <c r="H116">
         <v>0.06749467551708221</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D117">
         <v>8100.084374999995</v>
@@ -3136,14 +3493,17 @@
       <c r="H117">
         <v>0.06640994548797607</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D118">
         <v>8457.748804748635</v>
@@ -3157,14 +3517,17 @@
       <c r="H118">
         <v>0.06868917495012283</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D119">
         <v>8400.087499999996</v>
@@ -3178,14 +3541,17 @@
       <c r="H119">
         <v>0.06608754396438599</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D120">
         <v>8383.432598373669</v>
@@ -3199,14 +3565,17 @@
       <c r="H120">
         <v>0.06950654089450836</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D121">
         <v>7936.208825150433</v>
@@ -3220,14 +3589,17 @@
       <c r="H121">
         <v>0.07063692063093185</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D122">
         <v>7598.843025119188</v>
@@ -3244,14 +3616,17 @@
       <c r="H122">
         <v>0.06272377073764801</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D123">
         <v>7442.226788761301</v>
@@ -3265,14 +3640,17 @@
       <c r="H123">
         <v>0.07148837298154831</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D124">
         <v>8000.083333333333</v>
@@ -3286,14 +3664,17 @@
       <c r="H124">
         <v>0.0638846829533577</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D125">
         <v>7846.686104218707</v>
@@ -3310,16 +3691,19 @@
       <c r="H125">
         <v>0.06471730768680573</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D126">
         <v>10786.4280850722</v>
@@ -3336,14 +3720,17 @@
       <c r="H126">
         <v>0.1161623224616051</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D127">
         <v>24918.3441584956</v>
@@ -3357,14 +3744,17 @@
       <c r="H127">
         <v>0.1380515098571777</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D128">
         <v>13696.91214908652</v>
@@ -3381,14 +3771,17 @@
       <c r="H128">
         <v>0.1214068457484245</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D129">
         <v>22000.22916666667</v>
@@ -3402,14 +3795,17 @@
       <c r="H129">
         <v>0.1296708732843399</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D130">
         <v>24636.59674474951</v>
@@ -3423,14 +3819,17 @@
       <c r="H130">
         <v>0.1352076828479767</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D131">
         <v>12595.18054557627</v>
@@ -3447,14 +3846,17 @@
       <c r="H131">
         <v>0.1219251826405525</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D132">
         <v>16291.12346623057</v>
@@ -3468,14 +3870,17 @@
       <c r="H132">
         <v>0.1265804469585419</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D133">
         <v>22000.22916666666</v>
@@ -3489,14 +3894,17 @@
       <c r="H133">
         <v>0.1321997940540314</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D134">
         <v>10935.28218242004</v>
@@ -3513,14 +3921,17 @@
       <c r="H134">
         <v>0.1047737151384354</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D135">
         <v>12929.44405377297</v>
@@ -3537,14 +3948,17 @@
       <c r="H135">
         <v>0.1061631813645363</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D136">
         <v>13500.140625</v>
@@ -3558,14 +3972,17 @@
       <c r="H136">
         <v>0.119507871568203</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D137">
         <v>7926.636041628328</v>
@@ -3582,14 +3999,17 @@
       <c r="H137">
         <v>0.1052944213151932</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D138">
         <v>22500.234375</v>
@@ -3603,14 +4023,17 @@
       <c r="H138">
         <v>0.134052574634552</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D139">
         <v>12154.78420552896</v>
@@ -3624,14 +4047,17 @@
       <c r="H139">
         <v>0.1186822429299355</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D140">
         <v>12548.53180770085</v>
@@ -3645,14 +4071,17 @@
       <c r="H140">
         <v>0.1226081103086472</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D141">
         <v>7068.884892708651</v>
@@ -3669,14 +4098,17 @@
       <c r="H141">
         <v>0.1053865551948547</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D142">
         <v>10150.37822267846</v>
@@ -3693,14 +4125,17 @@
       <c r="H142">
         <v>0.1127162575721741</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D143">
         <v>10762.16687008687</v>
@@ -3717,14 +4152,17 @@
       <c r="H143">
         <v>0.1192628517746925</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D144">
         <v>11222.59206800395</v>
@@ -3741,14 +4179,17 @@
       <c r="H144">
         <v>0.1210097447037697</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D145">
         <v>14967.85730041158</v>
@@ -3765,14 +4206,17 @@
       <c r="H145">
         <v>0.125190868973732</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D146">
         <v>17000.17708333334</v>
@@ -3786,14 +4230,17 @@
       <c r="H146">
         <v>0.1227096393704414</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D147">
         <v>8014.28683029249</v>
@@ -3810,14 +4257,17 @@
       <c r="H147">
         <v>0.1085098683834076</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D148">
         <v>9744.410137761592</v>
@@ -3834,14 +4284,17 @@
       <c r="H148">
         <v>0.1119994893670082</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D149">
         <v>25620.55384292443</v>
@@ -3858,14 +4311,17 @@
       <c r="H149">
         <v>0.1400786489248276</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D150">
         <v>16878.99920903178</v>
@@ -3882,14 +4338,17 @@
       <c r="H150">
         <v>0.1240905225276947</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D151">
         <v>11523.055894978</v>
@@ -3906,14 +4365,17 @@
       <c r="H151">
         <v>0.1170730143785477</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D152">
         <v>8329.732017170276</v>
@@ -3930,14 +4392,17 @@
       <c r="H152">
         <v>0.1119235977530479</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D153">
         <v>8898.651745544128</v>
@@ -3954,14 +4419,17 @@
       <c r="H153">
         <v>0.1214259639382362</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D154">
         <v>9918.044020764137</v>
@@ -3978,14 +4446,17 @@
       <c r="H154">
         <v>0.1177231818437576</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D155">
         <v>18760.12171959298</v>
@@ -3999,14 +4470,17 @@
       <c r="H155">
         <v>0.1305695921182632</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D156">
         <v>10281.55335145478</v>
@@ -4023,14 +4497,17 @@
       <c r="H156">
         <v>0.1029930934309959</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D157">
         <v>18000.1875</v>
@@ -4044,14 +4521,17 @@
       <c r="H157">
         <v>0.1266082674264908</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D158">
         <v>19194.05770705855</v>
@@ -4068,14 +4548,17 @@
       <c r="H158">
         <v>0.1316217482089996</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D159">
         <v>12516.44587019757</v>
@@ -4092,14 +4575,17 @@
       <c r="H159">
         <v>0.108306422829628</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C160" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D160">
         <v>12039.54752283692</v>
@@ -4116,14 +4602,17 @@
       <c r="H160">
         <v>0.106419138610363</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C161" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D161">
         <v>15681.11447863931</v>
@@ -4140,14 +4629,17 @@
       <c r="H161">
         <v>0.1267938762903214</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D162">
         <v>19818.59846016109</v>
@@ -4161,14 +4653,17 @@
       <c r="H162">
         <v>0.1316783726215363</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C163" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D163">
         <v>13929.45119232876</v>
@@ -4185,14 +4680,17 @@
       <c r="H163">
         <v>0.1213949844241142</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D164">
         <v>23093.67825383182</v>
@@ -4206,14 +4704,17 @@
       <c r="H164">
         <v>0.1333546489477158</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C165" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D165">
         <v>13695.37035722906</v>
@@ -4227,14 +4728,17 @@
       <c r="H165">
         <v>0.1232962235808372</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D166">
         <v>12279.30278602262</v>
@@ -4251,14 +4755,17 @@
       <c r="H166">
         <v>0.1178876683115959</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C167" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D167">
         <v>10301.90246994109</v>
@@ -4275,14 +4782,17 @@
       <c r="H167">
         <v>0.1127280667424202</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C168" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D168">
         <v>17654.48639059853</v>
@@ -4299,14 +4809,17 @@
       <c r="H168">
         <v>0.1304486840963364</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D169">
         <v>14412.28797854569</v>
@@ -4320,14 +4833,17 @@
       <c r="H169">
         <v>0.1252869814634323</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D170">
         <v>15243.2002588794</v>
@@ -4344,14 +4860,17 @@
       <c r="H170">
         <v>0.1259458512067795</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C171" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D171">
         <v>18962.62445460234</v>
@@ -4368,14 +4887,17 @@
       <c r="H171">
         <v>0.1320659518241882</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C172" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D172">
         <v>12682.05420567016</v>
@@ -4392,14 +4914,17 @@
       <c r="H172">
         <v>0.1048076525330544</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D173">
         <v>16523.68110495668</v>
@@ -4413,14 +4938,17 @@
       <c r="H173">
         <v>0.1272660046815872</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D174">
         <v>11260.28893456071</v>
@@ -4437,14 +4965,17 @@
       <c r="H174">
         <v>0.1169715076684952</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D175">
         <v>13457.54102115079</v>
@@ -4458,14 +4989,17 @@
       <c r="H175">
         <v>0.1170296370983124</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D176">
         <v>9474.205722799134</v>
@@ -4482,14 +5016,17 @@
       <c r="H176">
         <v>0.1172465682029724</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C177" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D177">
         <v>16063.00870217263</v>
@@ -4506,14 +5043,17 @@
       <c r="H177">
         <v>0.1275554001331329</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D178">
         <v>9601.092840129797</v>
@@ -4530,14 +5070,17 @@
       <c r="H178">
         <v>0.1112528815865517</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D179">
         <v>14355.55152962661</v>
@@ -4551,14 +5094,17 @@
       <c r="H179">
         <v>0.1194702610373497</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D180">
         <v>18697.13946387502</v>
@@ -4572,14 +5118,17 @@
       <c r="H180">
         <v>0.1287698894739151</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C181" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D181">
         <v>11873.15153064701</v>
@@ -4593,14 +5142,17 @@
       <c r="H181">
         <v>0.1178952679038048</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C182" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D182">
         <v>8894.422423976959</v>
@@ -4617,14 +5169,17 @@
       <c r="H182">
         <v>0.1107806265354156</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D183">
         <v>19296.17072991285</v>
@@ -4641,14 +5196,17 @@
       <c r="H183">
         <v>0.1289954632520676</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C184" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D184">
         <v>11040.98428497883</v>
@@ -4665,14 +5223,17 @@
       <c r="H184">
         <v>0.1030237451195717</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D185">
         <v>11744.92942468356</v>
@@ -4689,14 +5250,17 @@
       <c r="H185">
         <v>0.1159335151314735</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D186">
         <v>10393.83402067058</v>
@@ -4713,14 +5277,17 @@
       <c r="H186">
         <v>0.114983081817627</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D187">
         <v>7315.785374334758</v>
@@ -4737,16 +5304,19 @@
       <c r="H187">
         <v>0.1068217307329178</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D188">
         <v>18736.81632884605</v>
@@ -4763,14 +5333,17 @@
       <c r="H188">
         <v>0.1593139916658401</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D189">
         <v>21000.21875</v>
@@ -4784,14 +5357,17 @@
       <c r="H189">
         <v>0.2015632688999176</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D190">
         <v>28906.24602764038</v>
@@ -4808,14 +5384,17 @@
       <c r="H190">
         <v>0.1718409508466721</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D191">
         <v>15216.06361784767</v>
@@ -4832,14 +5411,17 @@
       <c r="H191">
         <v>0.1894929707050323</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D192">
         <v>13998.01189483575</v>
@@ -4856,14 +5438,17 @@
       <c r="H192">
         <v>0.1933920681476593</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D193">
         <v>24292.99438500274</v>
@@ -4880,14 +5465,17 @@
       <c r="H193">
         <v>0.1705761104822159</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D194">
         <v>17500.18229166668</v>
@@ -4901,14 +5489,17 @@
       <c r="H194">
         <v>0.191017210483551</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D195">
         <v>16745.19439714533</v>
@@ -4922,14 +5513,17 @@
       <c r="H195">
         <v>0.1907617151737213</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D196">
         <v>10149.36808379716</v>
@@ -4946,14 +5540,17 @@
       <c r="H196">
         <v>0.1382465958595276</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D197">
         <v>12482.07449892143</v>
@@ -4970,14 +5567,17 @@
       <c r="H197">
         <v>0.1408252567052841</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C198" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D198">
         <v>24841.86365961212</v>
@@ -4994,14 +5594,17 @@
       <c r="H198">
         <v>0.1728316098451614</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C199" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D199">
         <v>14964.67972869397</v>
@@ -5018,14 +5621,17 @@
       <c r="H199">
         <v>0.1392261385917664</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D200">
         <v>16840.27257873966</v>
@@ -5042,14 +5648,17 @@
       <c r="H200">
         <v>0.1950912177562714</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C201" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D201">
         <v>25934.88838353402</v>
@@ -5066,14 +5675,17 @@
       <c r="H201">
         <v>0.1698428392410278</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C202" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D202">
         <v>34640.85553581916</v>
@@ -5090,14 +5702,17 @@
       <c r="H202">
         <v>0.1852158606052399</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D203">
         <v>13843.1952791494</v>
@@ -5114,14 +5729,17 @@
       <c r="H203">
         <v>0.1369706690311432</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D204">
         <v>24535.82522851022</v>
@@ -5138,14 +5756,17 @@
       <c r="H204">
         <v>0.1543158739805222</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C205" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D205">
         <v>25898.7929230592</v>
@@ -5162,14 +5783,17 @@
       <c r="H205">
         <v>0.1729087680578232</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C206" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D206">
         <v>24719.68687901867</v>
@@ -5186,14 +5810,17 @@
       <c r="H206">
         <v>0.1690924912691116</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D207">
         <v>12014.15026427569</v>
@@ -5210,14 +5837,17 @@
       <c r="H207">
         <v>0.1811836361885071</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D208">
         <v>24965.08209000587</v>
@@ -5234,14 +5864,17 @@
       <c r="H208">
         <v>0.1726787686347961</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C209" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D209">
         <v>11752.82337965216</v>
@@ -5258,14 +5891,17 @@
       <c r="H209">
         <v>0.142909973859787</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C210" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D210">
         <v>19932.03334686616</v>
@@ -5282,14 +5918,17 @@
       <c r="H210">
         <v>0.1554485410451889</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D211">
         <v>18862.91428965364</v>
@@ -5306,14 +5945,17 @@
       <c r="H211">
         <v>0.2023488432168961</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C212" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D212">
         <v>11943.48131084826</v>
@@ -5330,14 +5972,17 @@
       <c r="H212">
         <v>0.1742358952760696</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C213" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D213">
         <v>22167.30201139807</v>
@@ -5354,14 +5999,17 @@
       <c r="H213">
         <v>0.1616940349340439</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D214">
         <v>19614.84955182837</v>
@@ -5378,14 +6026,17 @@
       <c r="H214">
         <v>0.1516307592391968</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D215">
         <v>24335.84073607431</v>
@@ -5402,14 +6053,17 @@
       <c r="H215">
         <v>0.1677524596452713</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C216" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D216">
         <v>17678.93389725996</v>
@@ -5426,14 +6080,17 @@
       <c r="H216">
         <v>0.1621213406324387</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C217" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D217">
         <v>16688.51791301546</v>
@@ -5447,14 +6104,17 @@
       <c r="H217">
         <v>0.1898485869169235</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D218">
         <v>17116.29660509124</v>
@@ -5471,14 +6131,17 @@
       <c r="H218">
         <v>0.1349201947450638</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D219">
         <v>15285.46006236379</v>
@@ -5492,14 +6155,17 @@
       <c r="H219">
         <v>0.1904352754354477</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C220" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D220">
         <v>14509.59499265923</v>
@@ -5516,14 +6182,17 @@
       <c r="H220">
         <v>0.1896335035562515</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C221" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D221">
         <v>11312.19797683035</v>
@@ -5540,14 +6209,17 @@
       <c r="H221">
         <v>0.1436746567487717</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C222" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D222">
         <v>11227.21045278261</v>
@@ -5564,14 +6236,17 @@
       <c r="H222">
         <v>0.1391603648662567</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C223" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D223">
         <v>33129.08419686449</v>
@@ -5588,14 +6263,17 @@
       <c r="H223">
         <v>0.1808706969022751</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D224">
         <v>16096.84417432221</v>
@@ -5609,14 +6287,17 @@
       <c r="H224">
         <v>0.1969351172447205</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C225" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D225">
         <v>25175.41367806965</v>
@@ -5633,14 +6314,17 @@
       <c r="H225">
         <v>0.1680303364992142</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D226">
         <v>17744.323571088</v>
@@ -5657,14 +6341,17 @@
       <c r="H226">
         <v>0.1949165016412735</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C227" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D227">
         <v>15479.40408955009</v>
@@ -5678,14 +6365,17 @@
       <c r="H227">
         <v>0.1863949000835419</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C228" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D228">
         <v>26806.23464053732</v>
@@ -5702,14 +6392,17 @@
       <c r="H228">
         <v>0.1644172966480255</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C229" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D229">
         <v>34263.01571910757</v>
@@ -5723,14 +6416,17 @@
       <c r="H229">
         <v>0.1387719810009003</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C230" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D230">
         <v>14869.87614513888</v>
@@ -5747,14 +6443,17 @@
       <c r="H230">
         <v>0.1883957386016846</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D231">
         <v>37198.85735168993</v>
@@ -5771,14 +6470,17 @@
       <c r="H231">
         <v>0.1881511062383652</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C232" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D232">
         <v>12342.59653514524</v>
@@ -5795,14 +6497,17 @@
       <c r="H232">
         <v>0.1759851574897766</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D233">
         <v>11956.96980259507</v>
@@ -5819,14 +6524,17 @@
       <c r="H233">
         <v>0.1877965480089188</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C234" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D234">
         <v>11069.56425234147</v>
@@ -5843,14 +6551,17 @@
       <c r="H234">
         <v>0.1388981491327286</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C235" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D235">
         <v>16180.4366507723</v>
@@ -5864,14 +6575,17 @@
       <c r="H235">
         <v>0.1885772049427032</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C236" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D236">
         <v>21249.59522275551</v>
@@ -5888,14 +6602,17 @@
       <c r="H236">
         <v>0.1609594523906708</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C237" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D237">
         <v>15703.61154839397</v>
@@ -5912,14 +6629,17 @@
       <c r="H237">
         <v>0.1577858775854111</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D238">
         <v>18031.15728826307</v>
@@ -5936,14 +6656,17 @@
       <c r="H238">
         <v>0.1585929989814758</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C239" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D239">
         <v>34460.64967520684</v>
@@ -5960,14 +6683,17 @@
       <c r="H239">
         <v>0.1843449920415878</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C240" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D240">
         <v>12856.52843009839</v>
@@ -5984,14 +6710,17 @@
       <c r="H240">
         <v>0.1468953788280487</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C241" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D241">
         <v>14139.6835262699</v>
@@ -6005,14 +6734,17 @@
       <c r="H241">
         <v>0.1813366711139679</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C242" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D242">
         <v>16770.38776105265</v>
@@ -6026,14 +6758,17 @@
       <c r="H242">
         <v>0.189670592546463</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C243" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D243">
         <v>17891.18928690607</v>
@@ -6050,14 +6785,17 @@
       <c r="H243">
         <v>0.1648482978343964</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C244" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D244">
         <v>15194.08458441624</v>
@@ -6074,14 +6812,17 @@
       <c r="H244">
         <v>0.1524860411882401</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D245">
         <v>33010.74256618076</v>
@@ -6098,14 +6839,17 @@
       <c r="H245">
         <v>0.1794235408306122</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C246" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D246">
         <v>14815.15263309991</v>
@@ -6122,14 +6866,17 @@
       <c r="H246">
         <v>0.131989598274231</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D247">
         <v>17200.15706878671</v>
@@ -6146,14 +6893,17 @@
       <c r="H247">
         <v>0.1625120937824249</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C248" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D248">
         <v>19857.02538286048</v>
@@ -6170,14 +6920,17 @@
       <c r="H248">
         <v>0.1550425291061401</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C249" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D249">
         <v>10727.02953987664</v>
@@ -6193,6 +6946,9 @@
       </c>
       <c r="H249">
         <v>0.1386382579803467</v>
+      </c>
+      <c r="I249" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
